--- a/GATEWAY/A1#111#HLTMANAGEMENTSRLXX/HLT Management/HLT Central/4.2/report-checklist.xlsx
+++ b/GATEWAY/A1#111#HLTMANAGEMENTSRLXX/HLT Management/HLT Central/4.2/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tecnoter\TFS_Cloud\PE\AccreditamentoFSE2.0\Resource\HLT\Accreditamento_2024\GITHUB_20012025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF7550A-F041-4F96-876F-A80E28E69760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BF9DA2-BA61-4B34-9982-2DBA793E9EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5035,19 +5035,19 @@
   <dimension ref="A1:W809"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F211" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B186" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H220" sqref="H220"/>
+      <selection pane="bottomRight" activeCell="C221" sqref="C221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="11.41796875" customWidth="1"/>
-    <col min="2" max="2" width="46.83984375" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="20.15625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="63.83984375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="104.83984375" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="46.83984375" customWidth="1"/>
+    <col min="3" max="3" width="20.15625" customWidth="1"/>
+    <col min="4" max="4" width="63.83984375" customWidth="1"/>
+    <col min="5" max="5" width="104.83984375" customWidth="1"/>
     <col min="6" max="9" width="33.15625" customWidth="1"/>
     <col min="10" max="10" width="27.15625" customWidth="1"/>
     <col min="11" max="18" width="36.41796875" customWidth="1"/>
@@ -23027,6 +23027,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -23284,15 +23293,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -23306,6 +23306,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5C8A108-5C92-4947-B020-8B796E060B59}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -23320,14 +23328,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/A1#111#HLTMANAGEMENTSRLXX/HLT Management/HLT Central/4.2/report-checklist.xlsx
+++ b/GATEWAY/A1#111#HLTMANAGEMENTSRLXX/HLT Management/HLT Central/4.2/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tecnoter\TFS_Cloud\PE\AccreditamentoFSE2.0\Resource\HLT\Accreditamento_2024\GITHUB_20012025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tecnoter\TFS_Cloud\PE\AccreditamentoFSE2.0\Resource\HLT\Accreditamento_2024\GITHUB_24012025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BF9DA2-BA61-4B34-9982-2DBA793E9EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF307E5-751E-4313-A69C-F024B992C09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-14493" windowWidth="25786" windowHeight="13866" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2397" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="816">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1972,700 +1972,922 @@
     <t>Non rientra tra i documenti gestiti dall'applicativo</t>
   </si>
   <si>
-    <t>fd2e6def4cab0336</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.2bf7b6f355^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>60cf8e9bcfd6ce12</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.bd293207f0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>9589dd8d91521336</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.b1142c98c9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>3909a38702202edc</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.9e4ced549f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>44ad8dea4527f936</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.e68bc82782^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>b3112e1938b6b13e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.8dcf753e30^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>ad09cbf49bf5388c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.070a296741^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>c4eb1456c6589dae</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.bbaeeced2a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>7e00d9c878a5f971</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.3e332bb1ae^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>01e3acaf737ce0f3</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.c136656aec^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>7d7da4788986349f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.7bee460228^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>e663f8af61d75efd</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.030ce7f126^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>f2efc2f51b44c78d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.734f39eace^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>fb72384a24d394c9</t>
-  </si>
-  <si>
-    <t>b885c176676f3c20</t>
-  </si>
-  <si>
-    <t>f16f16989e1572a6</t>
-  </si>
-  <si>
-    <t>6bd9e6fbfe980e41</t>
-  </si>
-  <si>
-    <t>c59f5dff46983ce9</t>
-  </si>
-  <si>
-    <t>745c5db97b32350b</t>
-  </si>
-  <si>
-    <t>e4479577c9fa7e0d</t>
-  </si>
-  <si>
-    <t>bba37cf11c6d6928</t>
-  </si>
-  <si>
-    <t>113248101bec4d29</t>
-  </si>
-  <si>
-    <t>5e6034f7453e78d2</t>
-  </si>
-  <si>
-    <t>1ee5359b61ed2e20</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.ac79a5e794^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>0be456ae29220519</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.282cae8f99^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>f508cc4d9a401245</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.297bcac29a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>c8406796b0d3a18c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.edb0c7f7fd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>633fe6b31270bcc4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.3406d0140f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>e3a4f9e5b34f429f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.9ef410b285^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>1869b80487ab2f38</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.88ccae1fe6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>7993e6741176b404</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.f715d09061^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>ee2e6631d0043e81</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.ecee465368^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>c0069edbe21026a9</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.f4ab36a19a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>d4826ae6e816e380</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.c7de403bfe^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>98fcd692ea7a34e7</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.153be9c043^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>e49c02d69b576a1d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.cd658db36d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>90cb1ecc47f2bfd8</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.a1e88754b0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>cd29b2b6be094c9a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.0d1df836d9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>52985abb95cca702</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.48744168cb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>a1286af4c08713e5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.08cf160bf5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>3149518054fb4a37</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.c7da1f37c8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>9e6645504ec21585</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.df0be2c43e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>df48fb6b483d5522</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.968b4a804f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>bdadd06cc1c99262</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.5ce4a8d468^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>3256b4a7c7b920da</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.1d02b631dd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>8c8162efdff0342f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.daa0d894cc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>4421d44060a06ddd</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.af942e0cd3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>9d7e408ba868f44e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.638488b46c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>142a41dc9a2a772e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.eba3d6a6e9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>96619dbb02f4ea41</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.1d9f2785f5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>94915763a713763f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.c48e7c3eef^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>6b8889903a07b592</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.eb0afe5b14^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>dac8150a291f7bb8</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.1b5584e734^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>469074964d0c703c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.c2339a68a5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>9c69fbbd0458b771</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.a94a476e83^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>f2e6dd8fccf44886</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.bea058b8da^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>7ba1429320035797</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.005d447cb1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>d3a9003323398644</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.9ffaa65fcf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>afb45541191a8055</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.158a4ecb6d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>71e66bb2786a6125</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.e0d2a330f4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>26272d60c3f04f23</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.b24284ec12^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>1345d9bdd6014b9b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.a5be558c45^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>43eab952126eab34</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.7900d5680d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>8008c5a22ef06edd</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.7d125498ca^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>19966e51bba29df7</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.604ba8d2b0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>3da8811b3e7a6031</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.5a1f25dac5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>f9f33dfd719b8ab7</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.1d67bb70bc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>1e5c6b705b9614c8</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.bd9a4762f4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2078ce8f532c08dd</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.a3665fa557^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>33dad2f2d2de48ec</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.4bfcbcb092^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>66ae5454dcb0eef1</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.e1b1164f6d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>7783b916aec0e5e6</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.7a81846af3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>b3de1178b06cc2a4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.bc7887fa86^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>bfceb32f2d96593b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.d0b4a93836^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>df491f27146e56e9</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.9bf9adb347^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>37dd0583d29c43e8</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.9c4052ccd2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>d85d367c789a3f65</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.4061c147bb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>f44a53af399803ab</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.a7aa6bc25c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>896ce30aeaf3cc37</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.bc6d778ee0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>8dd26d0e5a1b8575</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.4d21000b26^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>67d7c8bf09b6a1b6</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.ce2ae30f8d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>10118f27b62bb75c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.e34fe512bb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>817b25bcb14d876d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.f328dca023^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>664cf4782685d5c4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.cbee5f4412^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>24052e44f6759427</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.e0d9182fa0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>52d2925b3b525052</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.74c33c2cab^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>64acbfc45a010ef4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.23c2b4c79e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>1599b11dad719905</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.283e30f140^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>65615bf1c7b0dcbd</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.e803a366f5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>13461fffa2cac803</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.c2b68e1107^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>e819ff18f95171ff</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.e2fedcc236^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2d804fa5d6c231ab</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.c5025885e7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>513dca5dc945219c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.d940ff4df5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>b91f20689e0de045</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.6276a8681a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>28531806d4997a68</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.a86c05c787^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>5c10e58b69df28fa</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.465bf7e81f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>e2b24e1a977413ac</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.bfb6390a9f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>38c95b7d9f485c24</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.bb966075af^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>15c264fc249cd1e5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.f41b4309d4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>0bd97e946dd9051f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.ea90fb6bfd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2f5d873db4b09b63</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.6f0d209be3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>9410b7e6f6094417</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.4c7f4c6c9d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2d969d75c66e40ed</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.990fea1829^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>61fc0a96c229cbef</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.11a440f5c6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>7007b0ca37a9bf22</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.074228a4bf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>cd318bbb05ca62ee</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.d6fa46af23^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>e7f5031c51a3ab7f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.d8273eb2f6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>9860d2e00daefb4e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.dffd11c1d1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>f9fc93b2bd655767</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.5ea62caa9a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>cb3faff53cae3d50</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.712e33f1fc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>8d040309a89ae934</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.7a2e59c98a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>e98c2812a3a91eb7</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.c21f2fd7a5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>e045304d496121c1</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.4ce5927068^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>8bf69c068bc8af4e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.6a9eae340e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>8faf6f5e1b14b3d5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.90b09977ad^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>006dc4d63b324ba9</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.2cc9e9811a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>080ac5f85c9901f6</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.42250226e8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>af0b890565f05c4c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.2a40ead2eb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>e461a8370fdc10d7</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.8ae1811f48^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>6d9d696d6b6adba5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.128f4d15fc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>06d9de80b0e897f9</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.2c442a55ba^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>24/01/2025</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:56:31Z</t>
+  </si>
+  <si>
+    <t>ed336878c4fcda27</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.e9e9866d96^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>fc0ce2ec9c7bb6ed</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.31e7cd744b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:56:32Z</t>
+  </si>
+  <si>
+    <t>904572ed1fc061f9</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.343dacee11^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>84c1fccb607339de</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.03a35beae6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:56:33Z</t>
+  </si>
+  <si>
+    <t>54f48cc4bb64df4c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.cfec1913ee^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:56:34Z</t>
+  </si>
+  <si>
+    <t>88aed64fb812ca4c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.46066c5437^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>bdc4efe44a7995b7</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.7ece61c5c8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:56:35Z</t>
+  </si>
+  <si>
+    <t>00b348beedf17cf6</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.ee24dfe86d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:56:36Z</t>
+  </si>
+  <si>
+    <t>51ae7460bf5d83c9</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.2aff4736fc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>15166935202682e3</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.ca9c8e33ed^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:56:37Z</t>
+  </si>
+  <si>
+    <t>fbaccd25b54f1ba1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.777a15c3c4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:56:38Z</t>
+  </si>
+  <si>
+    <t>64b1d5e7c70753bb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.5a676acd9b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>98002f19a713bd40</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.5ba4b229fa^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:56:39Z</t>
+  </si>
+  <si>
+    <t>1fe1ed882c9ca142</t>
+  </si>
+  <si>
+    <t>cbfa9a5cf25fb2ab</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:56:40Z</t>
+  </si>
+  <si>
+    <t>5cda9b4fe23e8647</t>
+  </si>
+  <si>
+    <t>4b4add22b55bb63a</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:56:41Z</t>
+  </si>
+  <si>
+    <t>18c2e49c920a856d</t>
+  </si>
+  <si>
+    <t>ba4e50e5d12c56ee</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:56:42Z</t>
+  </si>
+  <si>
+    <t>6a559891963136e0</t>
+  </si>
+  <si>
+    <t>04c2ca50db988bfa</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:56:43Z</t>
+  </si>
+  <si>
+    <t>6f32f62be49ce13f</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:56:44Z</t>
+  </si>
+  <si>
+    <t>a08116445e3b5b9f</t>
+  </si>
+  <si>
+    <t>5f32464dcd03e2db</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.3f694fe322^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:56:45Z</t>
+  </si>
+  <si>
+    <t>b7e2d8a04d2b2f77</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.d24e714b06^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:56:46Z</t>
+  </si>
+  <si>
+    <t>993a3a23fa446bcd</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.6c46c77e94^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>d85dcaddb7e66f43</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.a58f8ca2d0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:56:47Z</t>
+  </si>
+  <si>
+    <t>1223dd57417e51bd</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.f4dc06f6eb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>603607a96f91a357</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.6fd4e541b8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:56:48Z</t>
+  </si>
+  <si>
+    <t>a9d2bd1dc8f6e3ac</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.e8a3a73bca^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:56:49Z</t>
+  </si>
+  <si>
+    <t>5eb1c80bf5ee30dd</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.05e447219f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>1b87d4d03e8a0ea8</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.0a56776e7c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:56:50Z</t>
+  </si>
+  <si>
+    <t>cdee78956e671487</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.abe6a35b3b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:56:51Z</t>
+  </si>
+  <si>
+    <t>7b11d77d65bb512a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.0a8e0a3dea^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>efdb27e21d9bd73c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.4693ab28b1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:56:52Z</t>
+  </si>
+  <si>
+    <t>dc5fabd87d2a3983</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.52146eee7f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>9aaefadfee02164d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.f993115a28^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:56:53Z</t>
+  </si>
+  <si>
+    <t>31c3e1dee9e7944d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.58d1b3076f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>89924225ecd54a65</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.00c8fdb3c6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:56:54Z</t>
+  </si>
+  <si>
+    <t>e464ca7159554b9e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.04947201c5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:56:55Z</t>
+  </si>
+  <si>
+    <t>dfde48c3e69594f5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.e048dcff45^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>10b80742539f2703</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.b792c97a9f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:56:56Z</t>
+  </si>
+  <si>
+    <t>7a9ff06961970a17</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.644628acc6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:56:57Z</t>
+  </si>
+  <si>
+    <t>c89222ba08064d8f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.ce4f1548e1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>3758bfe8cc7512ad</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.ec9b02bd56^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:56:58Z</t>
+  </si>
+  <si>
+    <t>63cfdcf3aaf1f227</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.802e5a974f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:56:59Z</t>
+  </si>
+  <si>
+    <t>4640dabb74012230</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.ddfe18ae5c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:57:00Z</t>
+  </si>
+  <si>
+    <t>7de0fa8ca007cd79</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.d825934263^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>d94c21e15665dfe9</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.6c1e936aff^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:57:01Z</t>
+  </si>
+  <si>
+    <t>cc2274e13bd64e6e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.da0eac4b90^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>152b6ca2264a1891</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.ae96d8be87^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:57:02Z</t>
+  </si>
+  <si>
+    <t>9bbdbd15b01e6d6c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.ee9a1b3104^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:57:03Z</t>
+  </si>
+  <si>
+    <t>c3068fd4244c424f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.9320be93f3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>11331aba610cc6d1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.bf38e2538a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:57:04Z</t>
+  </si>
+  <si>
+    <t>290104a5b79e9db1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.df9595d22f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>63ad6fe5e99f14e3</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.3cfb2f7794^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:57:05Z</t>
+  </si>
+  <si>
+    <t>b64a1d6584425834</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.fe4194189b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:57:06Z</t>
+  </si>
+  <si>
+    <t>abc95787adc3e849</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.e5a84d2052^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>6e7e759aabbac9b0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.4bf4de9ec9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:57:07Z</t>
+  </si>
+  <si>
+    <t>d92742b38d6b8f3c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.1fc29fe7ab^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>e3bbae77f445f8c6</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.7ccf625a8c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:57:08Z</t>
+  </si>
+  <si>
+    <t>8509f4c1a79538a8</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.45b7f40c67^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:57:09Z</t>
+  </si>
+  <si>
+    <t>1904892c87a2e442</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.12627e983d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>6a7af25bc96ce4da</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.a0e3b75b13^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:57:12Z</t>
+  </si>
+  <si>
+    <t>f53b02aa9bf42e1d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.ba8cedbf89^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>fd704f9de05c2cc4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.34607d5699^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:57:13Z</t>
+  </si>
+  <si>
+    <t>0e88a65b80370231</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.ea8a7abd91^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>78d1b32c2eedcd33</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.66474d7773^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:57:14Z</t>
+  </si>
+  <si>
+    <t>3403dfc76ef9213e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.99a0350f30^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:57:15Z</t>
+  </si>
+  <si>
+    <t>bd32b9530fa8d545</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.c86717fd6e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>6122908da99d2fc7</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.d37371909e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:57:16Z</t>
+  </si>
+  <si>
+    <t>0c6b2376e0349fb9</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.9f8dd73670^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>6a4f975f7a727f41</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.98b4bb9e23^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:57:17Z</t>
+  </si>
+  <si>
+    <t>828e6c908c2b1dfb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.fe3ea2f74f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>6627c7f3ccde366e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.35ad2dc0ab^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:57:18Z</t>
+  </si>
+  <si>
+    <t>a936cdaad43f7679</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.76ea655ff6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:57:19Z</t>
+  </si>
+  <si>
+    <t>a4f21e1678453105</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.b9a2381320^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>1bbcc597ea196311</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.59017e6145^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:57:20Z</t>
+  </si>
+  <si>
+    <t>dcb8cd28d6d2bae5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.69fb3ebbe7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:57:21Z</t>
+  </si>
+  <si>
+    <t>b62f851f8ee6b7b6</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.70f04bb0c1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>d0731538026a7a0c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.476afddc9a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:57:22Z</t>
+  </si>
+  <si>
+    <t>98af1d1027c39378</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.7479ee4d5b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>30db866e940e7955</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.8059a3ec7a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:57:23Z</t>
+  </si>
+  <si>
+    <t>33147ba1bd84ef21</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.5ee7471215^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:57:24Z</t>
+  </si>
+  <si>
+    <t>d558a92fa3209bd5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.74c6d6ab50^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:57:25Z</t>
+  </si>
+  <si>
+    <t>fde537c3a7cdc4fa</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.c3c5081a95^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>a7b4e0a3e598a488</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.18ef258e33^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:57:26Z</t>
+  </si>
+  <si>
+    <t>805c2a966c6a1bfb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.3dee44825c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:57:27Z</t>
+  </si>
+  <si>
+    <t>02ef5398548e101e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.439b4db7cb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>d92484eac4e98e8e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.054f855a82^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:57:28Z</t>
+  </si>
+  <si>
+    <t>e3764d27a47dae96</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.c22958d26b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>c1ccff5cca2ac745</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.641989cfce^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:57:29Z</t>
+  </si>
+  <si>
+    <t>b04cc755f369e23b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.5a9f7b25b9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>e3420c8eba10f9b4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.db3a960807^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:57:30Z</t>
+  </si>
+  <si>
+    <t>e059c9313eb00424</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.06eec27b2a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>4904e1f2a6778291</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.46e99bcc30^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:57:31Z</t>
+  </si>
+  <si>
+    <t>09a247a45cff8de9</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.41275f3a29^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>c50e5e266692efc0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.5ae0249fb1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:57:32Z</t>
+  </si>
+  <si>
+    <t>f8dd01e5c5248f81</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.2df6c250ea^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:57:33Z</t>
+  </si>
+  <si>
+    <t>e820bf481b5831f5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.eda4e71e94^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>6b0db369c2ea7e0b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.a09e992bba^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:57:34Z</t>
+  </si>
+  <si>
+    <t>946c68a8c3f848f5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.859a8f66db^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>16e2b1646e8bae25</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.83023c2a75^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:57:35Z</t>
+  </si>
+  <si>
+    <t>808788687b8d377a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.f36db72bc1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>186a8767ca8c5b0d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.83ba97f9e5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:57:36Z</t>
+  </si>
+  <si>
+    <t>c68b2d8ce3ff2091</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.69d40be90d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:57:37Z</t>
+  </si>
+  <si>
+    <t>5939b8e131777150</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.a17cf7cef5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>d35c85ac9ee3e5b5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.d3ab494c8d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:57:38Z</t>
+  </si>
+  <si>
+    <t>70a3fe023e706214</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.c41de6137d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>93d357add0f7507f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.cf0e2c667d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:57:39Z</t>
+  </si>
+  <si>
+    <t>900693c37d9daa69</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.a42cdffde6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>5b2a7e3478b86407</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.793ec87052^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:57:40Z</t>
+  </si>
+  <si>
+    <t>c4dc28f3562d2e82</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.fe26e2b6d0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>94074f805690906e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.aca16b2b5a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:57:41Z</t>
+  </si>
+  <si>
+    <t>5f923f421f6c4880</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.6ae3593cdf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:57:42Z</t>
+  </si>
+  <si>
+    <t>6e33414be0381a02</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.7349703bc1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>0368cb902601acce</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.b57339ebd2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:57:43Z</t>
+  </si>
+  <si>
+    <t>490966553d7135c5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.06d95127be^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>8f8aecaf342be0e5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.2ef26b8ce2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.1eba0b4ca2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>625693983e808b9e</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:57:45Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.9ecddef8db^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>67133fe92a5a95ba</t>
+  </si>
+  <si>
+    <t>2025-01-24T16:57:44Z</t>
   </si>
 </sst>
 </file>
@@ -5035,10 +5257,10 @@
   <dimension ref="A1:W809"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B186" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C221" sqref="C221"/>
+      <selection pane="bottomRight" sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -5268,10 +5490,10 @@
       <c r="E9" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="31" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="20" t="s">
@@ -5339,17 +5561,17 @@
       <c r="E10" s="31" t="s">
         <v>395</v>
       </c>
-      <c r="F10" s="62">
-        <v>45677.470779768519</v>
-      </c>
-      <c r="G10" s="63">
-        <v>45677.470779768519</v>
+      <c r="F10" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>511</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="J10" s="33" t="s">
         <v>87</v>
@@ -5386,17 +5608,17 @@
       <c r="E11" s="31" t="s">
         <v>396</v>
       </c>
-      <c r="F11" s="62">
-        <v>45677.470787025464</v>
-      </c>
-      <c r="G11" s="63">
-        <v>45677.470787025464</v>
+      <c r="F11" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>511</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="J11" s="33" t="s">
         <v>87</v>
@@ -5433,17 +5655,17 @@
       <c r="E12" s="31" t="s">
         <v>397</v>
       </c>
-      <c r="F12" s="62">
-        <v>45677.470794085646</v>
-      </c>
-      <c r="G12" s="63">
-        <v>45677.470794085646</v>
+      <c r="F12" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>516</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="J12" s="33" t="s">
         <v>87</v>
@@ -5480,17 +5702,17 @@
       <c r="E13" s="31" t="s">
         <v>398</v>
       </c>
-      <c r="F13" s="62">
-        <v>45677.470801030089</v>
-      </c>
-      <c r="G13" s="63">
-        <v>45677.470801030089</v>
+      <c r="F13" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>516</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="J13" s="33" t="s">
         <v>87</v>
@@ -5527,17 +5749,17 @@
       <c r="E14" s="31" t="s">
         <v>399</v>
       </c>
-      <c r="F14" s="62">
-        <v>45677.470808425925</v>
-      </c>
-      <c r="G14" s="63">
-        <v>45677.470808425925</v>
+      <c r="F14" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>521</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="J14" s="33" t="s">
         <v>87</v>
@@ -5574,17 +5796,17 @@
       <c r="E15" s="31" t="s">
         <v>400</v>
       </c>
-      <c r="F15" s="62">
-        <v>45677.470815034721</v>
-      </c>
-      <c r="G15" s="63">
-        <v>45677.470815034721</v>
+      <c r="F15" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>524</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="J15" s="33" t="s">
         <v>87</v>
@@ -5621,17 +5843,17 @@
       <c r="E16" s="31" t="s">
         <v>401</v>
       </c>
-      <c r="F16" s="62">
-        <v>45677.470822164352</v>
-      </c>
-      <c r="G16" s="63">
-        <v>45677.470822164352</v>
+      <c r="F16" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>524</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="J16" s="33" t="s">
         <v>87</v>
@@ -5668,17 +5890,17 @@
       <c r="E17" s="31" t="s">
         <v>402</v>
       </c>
-      <c r="F17" s="62">
-        <v>45677.470832627318</v>
-      </c>
-      <c r="G17" s="63">
-        <v>45677.470832615742</v>
+      <c r="F17" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>529</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="J17" s="33" t="s">
         <v>87</v>
@@ -5715,17 +5937,17 @@
       <c r="E18" s="31" t="s">
         <v>403</v>
       </c>
-      <c r="F18" s="62">
-        <v>45677.470840509261</v>
-      </c>
-      <c r="G18" s="63">
-        <v>45677.470840509261</v>
+      <c r="F18" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>532</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="J18" s="33" t="s">
         <v>87</v>
@@ -6058,17 +6280,17 @@
       <c r="E27" s="31" t="s">
         <v>412</v>
       </c>
-      <c r="F27" s="62">
-        <v>45677.470847986115</v>
-      </c>
-      <c r="G27" s="63">
-        <v>45677.470847986115</v>
+      <c r="F27" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G27" s="31" t="s">
+        <v>532</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="J27" s="33" t="s">
         <v>87</v>
@@ -6105,17 +6327,17 @@
       <c r="E28" s="31" t="s">
         <v>413</v>
       </c>
-      <c r="F28" s="62">
-        <v>45677.470859062501</v>
-      </c>
-      <c r="G28" s="63">
-        <v>45677.470859062501</v>
+      <c r="F28" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G28" s="31" t="s">
+        <v>537</v>
       </c>
       <c r="H28" s="31" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="I28" s="31" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="J28" s="33" t="s">
         <v>87</v>
@@ -6152,17 +6374,17 @@
       <c r="E29" s="31" t="s">
         <v>414</v>
       </c>
-      <c r="F29" s="62">
-        <v>45677.470869780096</v>
-      </c>
-      <c r="G29" s="63">
-        <v>45677.470869780096</v>
+      <c r="F29" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G29" s="31" t="s">
+        <v>540</v>
       </c>
       <c r="H29" s="31" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="J29" s="33" t="s">
         <v>87</v>
@@ -6199,17 +6421,17 @@
       <c r="E30" s="31" t="s">
         <v>415</v>
       </c>
-      <c r="F30" s="62">
-        <v>45677.470880821762</v>
-      </c>
-      <c r="G30" s="63">
-        <v>45677.470880821762</v>
+      <c r="F30" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G30" s="31" t="s">
+        <v>540</v>
       </c>
       <c r="H30" s="31" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="I30" s="31" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="J30" s="33" t="s">
         <v>87</v>
@@ -6246,14 +6468,14 @@
       <c r="E31" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="F31" s="62">
-        <v>45677.470961678242</v>
-      </c>
-      <c r="G31" s="63">
-        <v>45677.470961678242</v>
+      <c r="F31" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>545</v>
       </c>
       <c r="H31" s="31" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="I31" s="31" t="s">
         <v>505</v>
@@ -6305,14 +6527,14 @@
       <c r="E32" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="F32" s="62">
-        <v>45677.471041643519</v>
-      </c>
-      <c r="G32" s="63">
-        <v>45677.471041643519</v>
+      <c r="F32" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G32" s="31" t="s">
+        <v>545</v>
       </c>
       <c r="H32" s="31" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="I32" s="31" t="s">
         <v>505</v>
@@ -6407,14 +6629,14 @@
       <c r="E34" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="F34" s="62">
-        <v>45677.471123113428</v>
-      </c>
-      <c r="G34" s="63">
-        <v>45677.471123113428</v>
+      <c r="F34" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G34" s="31" t="s">
+        <v>548</v>
       </c>
       <c r="H34" s="31" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="I34" s="31" t="s">
         <v>505</v>
@@ -6466,14 +6688,14 @@
       <c r="E35" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="F35" s="62">
-        <v>45677.471204942129</v>
-      </c>
-      <c r="G35" s="63">
-        <v>45677.471204942129</v>
+      <c r="F35" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G35" s="31" t="s">
+        <v>548</v>
       </c>
       <c r="H35" s="31" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="I35" s="31" t="s">
         <v>505</v>
@@ -6611,14 +6833,14 @@
       <c r="E38" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="F38" s="62">
-        <v>45677.471288460649</v>
-      </c>
-      <c r="G38" s="63">
-        <v>45677.471288460649</v>
+      <c r="F38" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G38" s="31" t="s">
+        <v>551</v>
       </c>
       <c r="H38" s="31" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="I38" s="31" t="s">
         <v>505</v>
@@ -6670,14 +6892,14 @@
       <c r="E39" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="F39" s="62">
-        <v>45677.471371284722</v>
-      </c>
-      <c r="G39" s="63">
-        <v>45677.471371284722</v>
+      <c r="F39" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G39" s="31" t="s">
+        <v>551</v>
       </c>
       <c r="H39" s="31" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="I39" s="31" t="s">
         <v>505</v>
@@ -6729,14 +6951,14 @@
       <c r="E40" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="F40" s="62">
-        <v>45677.471453124999</v>
-      </c>
-      <c r="G40" s="63">
-        <v>45677.471453113423</v>
+      <c r="F40" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G40" s="31" t="s">
+        <v>554</v>
       </c>
       <c r="H40" s="31" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="I40" s="31" t="s">
         <v>505</v>
@@ -6831,14 +7053,14 @@
       <c r="E42" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="F42" s="62">
-        <v>45677.471534189812</v>
-      </c>
-      <c r="G42" s="63">
-        <v>45677.471534189812</v>
+      <c r="F42" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G42" s="31" t="s">
+        <v>554</v>
       </c>
       <c r="H42" s="31" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="I42" s="31" t="s">
         <v>505</v>
@@ -6890,14 +7112,14 @@
       <c r="E43" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="F43" s="62">
-        <v>45677.471616365743</v>
-      </c>
-      <c r="G43" s="63">
-        <v>45677.471616365743</v>
+      <c r="F43" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G43" s="31" t="s">
+        <v>557</v>
       </c>
       <c r="H43" s="31" t="s">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="I43" s="31" t="s">
         <v>505</v>
@@ -7035,16 +7257,16 @@
       <c r="E46" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="F46" s="62">
-        <v>45677.471697384259</v>
-      </c>
-      <c r="G46" s="63">
-        <v>45677.471697384259</v>
-      </c>
-      <c r="H46" s="63" t="s">
-        <v>545</v>
-      </c>
-      <c r="I46" s="63" t="s">
+      <c r="F46" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G46" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="H46" s="31" t="s">
+        <v>560</v>
+      </c>
+      <c r="I46" s="31" t="s">
         <v>505</v>
       </c>
       <c r="J46" s="33" t="s">
@@ -7094,8 +7316,8 @@
       <c r="E47" s="31" t="s">
         <v>319</v>
       </c>
-      <c r="F47" s="62">
-        <v>45677.471697384259</v>
+      <c r="F47" s="31" t="s">
+        <v>510</v>
       </c>
       <c r="G47" s="61"/>
       <c r="H47" s="31"/>
@@ -7151,8 +7373,8 @@
       <c r="E48" s="31" t="s">
         <v>319</v>
       </c>
-      <c r="F48" s="62">
-        <v>45677.471697384259</v>
+      <c r="F48" s="31" t="s">
+        <v>510</v>
       </c>
       <c r="G48" s="61"/>
       <c r="H48" s="31"/>
@@ -7253,8 +7475,8 @@
       <c r="E50" s="31" t="s">
         <v>319</v>
       </c>
-      <c r="F50" s="62">
-        <v>45677.471697384259</v>
+      <c r="F50" s="31" t="s">
+        <v>510</v>
       </c>
       <c r="G50" s="61"/>
       <c r="H50" s="31"/>
@@ -7310,8 +7532,8 @@
       <c r="E51" s="31" t="s">
         <v>319</v>
       </c>
-      <c r="F51" s="62">
-        <v>45677.471697384259</v>
+      <c r="F51" s="31" t="s">
+        <v>510</v>
       </c>
       <c r="G51" s="61"/>
       <c r="H51" s="31"/>
@@ -7457,8 +7679,8 @@
       <c r="E54" s="31" t="s">
         <v>319</v>
       </c>
-      <c r="F54" s="62">
-        <v>45677.471697384259</v>
+      <c r="F54" s="31" t="s">
+        <v>510</v>
       </c>
       <c r="G54" s="61"/>
       <c r="H54" s="31"/>
@@ -7514,17 +7736,17 @@
       <c r="E55" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="F55" s="62">
-        <v>45677.471779050924</v>
-      </c>
-      <c r="G55" s="63">
-        <v>45677.471779050924</v>
-      </c>
-      <c r="H55" s="63" t="s">
-        <v>546</v>
-      </c>
-      <c r="I55" s="63" t="s">
-        <v>547</v>
+      <c r="F55" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G55" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="H55" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="I55" s="31" t="s">
+        <v>562</v>
       </c>
       <c r="J55" s="33" t="s">
         <v>87</v>
@@ -7573,17 +7795,17 @@
       <c r="E56" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="F56" s="62">
-        <v>45677.471860972226</v>
-      </c>
-      <c r="G56" s="63">
-        <v>45677.471860972226</v>
-      </c>
-      <c r="H56" s="63" t="s">
-        <v>548</v>
-      </c>
-      <c r="I56" s="63" t="s">
-        <v>549</v>
+      <c r="F56" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G56" s="31" t="s">
+        <v>563</v>
+      </c>
+      <c r="H56" s="31" t="s">
+        <v>564</v>
+      </c>
+      <c r="I56" s="31" t="s">
+        <v>565</v>
       </c>
       <c r="J56" s="33" t="s">
         <v>87</v>
@@ -7632,17 +7854,17 @@
       <c r="E57" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="F57" s="62">
-        <v>45677.471944942132</v>
-      </c>
-      <c r="G57" s="63">
-        <v>45677.471944942132</v>
-      </c>
-      <c r="H57" s="63" t="s">
-        <v>550</v>
-      </c>
-      <c r="I57" s="63" t="s">
-        <v>551</v>
+      <c r="F57" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G57" s="31" t="s">
+        <v>566</v>
+      </c>
+      <c r="H57" s="31" t="s">
+        <v>567</v>
+      </c>
+      <c r="I57" s="31" t="s">
+        <v>568</v>
       </c>
       <c r="J57" s="33" t="s">
         <v>87</v>
@@ -7691,17 +7913,17 @@
       <c r="E58" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="F58" s="62">
-        <v>45677.472029525466</v>
-      </c>
-      <c r="G58" s="63">
-        <v>45677.472029525466</v>
-      </c>
-      <c r="H58" s="63" t="s">
-        <v>552</v>
-      </c>
-      <c r="I58" s="63" t="s">
-        <v>553</v>
+      <c r="F58" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G58" s="31" t="s">
+        <v>566</v>
+      </c>
+      <c r="H58" s="31" t="s">
+        <v>569</v>
+      </c>
+      <c r="I58" s="31" t="s">
+        <v>570</v>
       </c>
       <c r="J58" s="33" t="s">
         <v>87</v>
@@ -7750,17 +7972,17 @@
       <c r="E59" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="F59" s="62">
-        <v>45677.472112824071</v>
-      </c>
-      <c r="G59" s="63">
-        <v>45677.472112824071</v>
-      </c>
-      <c r="H59" s="63" t="s">
-        <v>554</v>
-      </c>
-      <c r="I59" s="63" t="s">
-        <v>555</v>
+      <c r="F59" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G59" s="31" t="s">
+        <v>571</v>
+      </c>
+      <c r="H59" s="31" t="s">
+        <v>572</v>
+      </c>
+      <c r="I59" s="31" t="s">
+        <v>573</v>
       </c>
       <c r="J59" s="33" t="s">
         <v>87</v>
@@ -7809,17 +8031,17 @@
       <c r="E60" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="F60" s="62">
-        <v>45677.472195636576</v>
-      </c>
-      <c r="G60" s="63">
-        <v>45677.472195636576</v>
-      </c>
-      <c r="H60" s="63" t="s">
-        <v>556</v>
-      </c>
-      <c r="I60" s="63" t="s">
-        <v>557</v>
+      <c r="F60" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G60" s="31" t="s">
+        <v>571</v>
+      </c>
+      <c r="H60" s="31" t="s">
+        <v>574</v>
+      </c>
+      <c r="I60" s="31" t="s">
+        <v>575</v>
       </c>
       <c r="J60" s="33" t="s">
         <v>87</v>
@@ -7868,17 +8090,17 @@
       <c r="E61" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="F61" s="62">
-        <v>45677.472277499997</v>
-      </c>
-      <c r="G61" s="63">
-        <v>45677.472277499997</v>
-      </c>
-      <c r="H61" s="63" t="s">
-        <v>558</v>
-      </c>
-      <c r="I61" s="63" t="s">
-        <v>559</v>
+      <c r="F61" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G61" s="31" t="s">
+        <v>576</v>
+      </c>
+      <c r="H61" s="31" t="s">
+        <v>577</v>
+      </c>
+      <c r="I61" s="31" t="s">
+        <v>578</v>
       </c>
       <c r="J61" s="33" t="s">
         <v>87</v>
@@ -7927,17 +8149,17 @@
       <c r="E62" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="F62" s="62">
-        <v>45677.472361527776</v>
-      </c>
-      <c r="G62" s="63">
-        <v>45677.472361527776</v>
-      </c>
-      <c r="H62" s="63" t="s">
-        <v>560</v>
-      </c>
-      <c r="I62" s="63" t="s">
-        <v>561</v>
+      <c r="F62" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G62" s="31" t="s">
+        <v>579</v>
+      </c>
+      <c r="H62" s="31" t="s">
+        <v>580</v>
+      </c>
+      <c r="I62" s="31" t="s">
+        <v>581</v>
       </c>
       <c r="J62" s="33" t="s">
         <v>87</v>
@@ -7986,17 +8208,17 @@
       <c r="E63" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="F63" s="62">
-        <v>45677.472444224535</v>
-      </c>
-      <c r="G63" s="63">
-        <v>45677.472444224535</v>
-      </c>
-      <c r="H63" s="63" t="s">
-        <v>562</v>
-      </c>
-      <c r="I63" s="63" t="s">
-        <v>563</v>
+      <c r="F63" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G63" s="31" t="s">
+        <v>579</v>
+      </c>
+      <c r="H63" s="31" t="s">
+        <v>582</v>
+      </c>
+      <c r="I63" s="31" t="s">
+        <v>583</v>
       </c>
       <c r="J63" s="33" t="s">
         <v>87</v>
@@ -8045,17 +8267,17 @@
       <c r="E64" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="F64" s="62">
-        <v>45677.472528449071</v>
-      </c>
-      <c r="G64" s="63">
-        <v>45677.472528449071</v>
-      </c>
-      <c r="H64" s="63" t="s">
-        <v>564</v>
-      </c>
-      <c r="I64" s="63" t="s">
-        <v>565</v>
+      <c r="F64" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G64" s="31" t="s">
+        <v>584</v>
+      </c>
+      <c r="H64" s="31" t="s">
+        <v>585</v>
+      </c>
+      <c r="I64" s="31" t="s">
+        <v>586</v>
       </c>
       <c r="J64" s="33" t="s">
         <v>87</v>
@@ -8104,17 +8326,17 @@
       <c r="E65" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="F65" s="62">
-        <v>45677.472611736113</v>
-      </c>
-      <c r="G65" s="63">
-        <v>45677.472611736113</v>
-      </c>
-      <c r="H65" s="63" t="s">
-        <v>566</v>
-      </c>
-      <c r="I65" s="63" t="s">
-        <v>567</v>
+      <c r="F65" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G65" s="31" t="s">
+        <v>587</v>
+      </c>
+      <c r="H65" s="31" t="s">
+        <v>588</v>
+      </c>
+      <c r="I65" s="31" t="s">
+        <v>589</v>
       </c>
       <c r="J65" s="33" t="s">
         <v>87</v>
@@ -8163,17 +8385,17 @@
       <c r="E66" s="31" t="s">
         <v>416</v>
       </c>
-      <c r="F66" s="62">
-        <v>45677.472693067131</v>
-      </c>
-      <c r="G66" s="63">
-        <v>45677.472693067131</v>
-      </c>
-      <c r="H66" s="63" t="s">
-        <v>568</v>
-      </c>
-      <c r="I66" s="63" t="s">
-        <v>569</v>
+      <c r="F66" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G66" s="31" t="s">
+        <v>587</v>
+      </c>
+      <c r="H66" s="31" t="s">
+        <v>590</v>
+      </c>
+      <c r="I66" s="31" t="s">
+        <v>591</v>
       </c>
       <c r="J66" s="33" t="s">
         <v>87</v>
@@ -8222,17 +8444,17 @@
       <c r="E67" s="31" t="s">
         <v>418</v>
       </c>
-      <c r="F67" s="62">
-        <v>45677.472775104165</v>
-      </c>
-      <c r="G67" s="63">
-        <v>45677.472775104165</v>
-      </c>
-      <c r="H67" s="63" t="s">
-        <v>570</v>
-      </c>
-      <c r="I67" s="63" t="s">
-        <v>571</v>
+      <c r="F67" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G67" s="31" t="s">
+        <v>592</v>
+      </c>
+      <c r="H67" s="31" t="s">
+        <v>593</v>
+      </c>
+      <c r="I67" s="31" t="s">
+        <v>594</v>
       </c>
       <c r="J67" s="33" t="s">
         <v>87</v>
@@ -8281,17 +8503,17 @@
       <c r="E68" s="31" t="s">
         <v>417</v>
       </c>
-      <c r="F68" s="62">
-        <v>45677.472857233799</v>
-      </c>
-      <c r="G68" s="63">
-        <v>45677.472857233799</v>
-      </c>
-      <c r="H68" s="63" t="s">
-        <v>572</v>
-      </c>
-      <c r="I68" s="63" t="s">
-        <v>573</v>
+      <c r="F68" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G68" s="31" t="s">
+        <v>592</v>
+      </c>
+      <c r="H68" s="31" t="s">
+        <v>595</v>
+      </c>
+      <c r="I68" s="31" t="s">
+        <v>596</v>
       </c>
       <c r="J68" s="33" t="s">
         <v>87</v>
@@ -8340,17 +8562,17 @@
       <c r="E69" s="31" t="s">
         <v>419</v>
       </c>
-      <c r="F69" s="62">
-        <v>45677.472939768515</v>
-      </c>
-      <c r="G69" s="63">
-        <v>45677.472939768515</v>
-      </c>
-      <c r="H69" s="63" t="s">
-        <v>574</v>
-      </c>
-      <c r="I69" s="63" t="s">
-        <v>575</v>
+      <c r="F69" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G69" s="31" t="s">
+        <v>597</v>
+      </c>
+      <c r="H69" s="31" t="s">
+        <v>598</v>
+      </c>
+      <c r="I69" s="31" t="s">
+        <v>599</v>
       </c>
       <c r="J69" s="33" t="s">
         <v>87</v>
@@ -8399,17 +8621,17 @@
       <c r="E70" s="31" t="s">
         <v>420</v>
       </c>
-      <c r="F70" s="62">
-        <v>45677.473022175924</v>
-      </c>
-      <c r="G70" s="63">
-        <v>45677.473022175924</v>
-      </c>
-      <c r="H70" s="63" t="s">
-        <v>576</v>
-      </c>
-      <c r="I70" s="63" t="s">
-        <v>577</v>
+      <c r="F70" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G70" s="31" t="s">
+        <v>597</v>
+      </c>
+      <c r="H70" s="31" t="s">
+        <v>600</v>
+      </c>
+      <c r="I70" s="31" t="s">
+        <v>601</v>
       </c>
       <c r="J70" s="33" t="s">
         <v>87</v>
@@ -8458,17 +8680,17 @@
       <c r="E71" s="31" t="s">
         <v>421</v>
       </c>
-      <c r="F71" s="62">
-        <v>45677.473104791665</v>
-      </c>
-      <c r="G71" s="63">
-        <v>45677.473104791665</v>
-      </c>
-      <c r="H71" s="63" t="s">
-        <v>578</v>
-      </c>
-      <c r="I71" s="63" t="s">
-        <v>579</v>
+      <c r="F71" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G71" s="31" t="s">
+        <v>602</v>
+      </c>
+      <c r="H71" s="31" t="s">
+        <v>603</v>
+      </c>
+      <c r="I71" s="31" t="s">
+        <v>604</v>
       </c>
       <c r="J71" s="33" t="s">
         <v>87</v>
@@ -8517,17 +8739,17 @@
       <c r="E72" s="31" t="s">
         <v>422</v>
       </c>
-      <c r="F72" s="62">
-        <v>45677.473186909723</v>
-      </c>
-      <c r="G72" s="63">
-        <v>45677.473186909723</v>
-      </c>
-      <c r="H72" s="63" t="s">
-        <v>580</v>
-      </c>
-      <c r="I72" s="63" t="s">
-        <v>581</v>
+      <c r="F72" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G72" s="31" t="s">
+        <v>605</v>
+      </c>
+      <c r="H72" s="31" t="s">
+        <v>606</v>
+      </c>
+      <c r="I72" s="31" t="s">
+        <v>607</v>
       </c>
       <c r="J72" s="33" t="s">
         <v>87</v>
@@ -8576,17 +8798,17 @@
       <c r="E73" s="31" t="s">
         <v>423</v>
       </c>
-      <c r="F73" s="62">
-        <v>45677.473268483795</v>
-      </c>
-      <c r="G73" s="63">
-        <v>45677.473268483795</v>
-      </c>
-      <c r="H73" s="63" t="s">
-        <v>582</v>
-      </c>
-      <c r="I73" s="63" t="s">
-        <v>583</v>
+      <c r="F73" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G73" s="31" t="s">
+        <v>605</v>
+      </c>
+      <c r="H73" s="31" t="s">
+        <v>608</v>
+      </c>
+      <c r="I73" s="31" t="s">
+        <v>609</v>
       </c>
       <c r="J73" s="33" t="s">
         <v>87</v>
@@ -8635,17 +8857,17 @@
       <c r="E74" s="31" t="s">
         <v>424</v>
       </c>
-      <c r="F74" s="62">
-        <v>45677.473387511571</v>
-      </c>
-      <c r="G74" s="63">
-        <v>45677.473387511571</v>
-      </c>
-      <c r="H74" s="63" t="s">
-        <v>584</v>
-      </c>
-      <c r="I74" s="63" t="s">
-        <v>585</v>
+      <c r="F74" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G74" s="31" t="s">
+        <v>610</v>
+      </c>
+      <c r="H74" s="31" t="s">
+        <v>611</v>
+      </c>
+      <c r="I74" s="31" t="s">
+        <v>612</v>
       </c>
       <c r="J74" s="33" t="s">
         <v>87</v>
@@ -8694,17 +8916,17 @@
       <c r="E75" s="31" t="s">
         <v>425</v>
       </c>
-      <c r="F75" s="62">
-        <v>45677.473470671299</v>
-      </c>
-      <c r="G75" s="63">
-        <v>45677.473470671299</v>
-      </c>
-      <c r="H75" s="63" t="s">
-        <v>586</v>
-      </c>
-      <c r="I75" s="63" t="s">
-        <v>587</v>
+      <c r="F75" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G75" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="H75" s="31" t="s">
+        <v>614</v>
+      </c>
+      <c r="I75" s="31" t="s">
+        <v>615</v>
       </c>
       <c r="J75" s="33" t="s">
         <v>87</v>
@@ -8753,17 +8975,17 @@
       <c r="E76" s="31" t="s">
         <v>426</v>
       </c>
-      <c r="F76" s="62">
-        <v>45677.473554942131</v>
-      </c>
-      <c r="G76" s="63">
-        <v>45677.473554942131</v>
-      </c>
-      <c r="H76" s="63" t="s">
-        <v>588</v>
-      </c>
-      <c r="I76" s="63" t="s">
-        <v>589</v>
+      <c r="F76" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G76" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="H76" s="31" t="s">
+        <v>616</v>
+      </c>
+      <c r="I76" s="31" t="s">
+        <v>617</v>
       </c>
       <c r="J76" s="33" t="s">
         <v>87</v>
@@ -8812,17 +9034,17 @@
       <c r="E77" s="31" t="s">
         <v>427</v>
       </c>
-      <c r="F77" s="62">
-        <v>45677.47364019676</v>
-      </c>
-      <c r="G77" s="63">
-        <v>45677.47364019676</v>
-      </c>
-      <c r="H77" s="63" t="s">
-        <v>590</v>
-      </c>
-      <c r="I77" s="63" t="s">
-        <v>591</v>
+      <c r="F77" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G77" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="H77" s="31" t="s">
+        <v>619</v>
+      </c>
+      <c r="I77" s="31" t="s">
+        <v>620</v>
       </c>
       <c r="J77" s="33" t="s">
         <v>87</v>
@@ -8871,17 +9093,17 @@
       <c r="E78" s="31" t="s">
         <v>428</v>
       </c>
-      <c r="F78" s="62">
-        <v>45677.473724606483</v>
-      </c>
-      <c r="G78" s="63">
-        <v>45677.473724606483</v>
-      </c>
-      <c r="H78" s="63" t="s">
-        <v>592</v>
-      </c>
-      <c r="I78" s="63" t="s">
-        <v>593</v>
+      <c r="F78" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G78" s="31" t="s">
+        <v>621</v>
+      </c>
+      <c r="H78" s="31" t="s">
+        <v>622</v>
+      </c>
+      <c r="I78" s="31" t="s">
+        <v>623</v>
       </c>
       <c r="J78" s="33" t="s">
         <v>87</v>
@@ -8930,17 +9152,17 @@
       <c r="E79" s="31" t="s">
         <v>429</v>
       </c>
-      <c r="F79" s="62">
-        <v>45677.47380886574</v>
-      </c>
-      <c r="G79" s="63">
-        <v>45677.47380886574</v>
-      </c>
-      <c r="H79" s="63" t="s">
-        <v>594</v>
-      </c>
-      <c r="I79" s="63" t="s">
-        <v>595</v>
+      <c r="F79" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G79" s="31" t="s">
+        <v>624</v>
+      </c>
+      <c r="H79" s="31" t="s">
+        <v>625</v>
+      </c>
+      <c r="I79" s="31" t="s">
+        <v>626</v>
       </c>
       <c r="J79" s="33" t="s">
         <v>87</v>
@@ -8989,17 +9211,17 @@
       <c r="E80" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="F80" s="62">
-        <v>45677.473894189818</v>
-      </c>
-      <c r="G80" s="63">
-        <v>45677.473894189818</v>
-      </c>
-      <c r="H80" s="63" t="s">
-        <v>596</v>
-      </c>
-      <c r="I80" s="63" t="s">
-        <v>597</v>
+      <c r="F80" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G80" s="31" t="s">
+        <v>624</v>
+      </c>
+      <c r="H80" s="31" t="s">
+        <v>627</v>
+      </c>
+      <c r="I80" s="31" t="s">
+        <v>628</v>
       </c>
       <c r="J80" s="33" t="s">
         <v>87</v>
@@ -9048,17 +9270,17 @@
       <c r="E81" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="F81" s="62">
-        <v>45677.473977442132</v>
-      </c>
-      <c r="G81" s="63">
-        <v>45677.473977442132</v>
-      </c>
-      <c r="H81" s="63" t="s">
-        <v>598</v>
-      </c>
-      <c r="I81" s="63" t="s">
-        <v>599</v>
+      <c r="F81" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G81" s="31" t="s">
+        <v>629</v>
+      </c>
+      <c r="H81" s="31" t="s">
+        <v>630</v>
+      </c>
+      <c r="I81" s="31" t="s">
+        <v>631</v>
       </c>
       <c r="J81" s="33" t="s">
         <v>87</v>
@@ -9107,17 +9329,17 @@
       <c r="E82" s="31" t="s">
         <v>430</v>
       </c>
-      <c r="F82" s="62">
-        <v>45677.474061736109</v>
-      </c>
-      <c r="G82" s="63">
-        <v>45677.474061736109</v>
-      </c>
-      <c r="H82" s="63" t="s">
-        <v>600</v>
-      </c>
-      <c r="I82" s="63" t="s">
-        <v>601</v>
+      <c r="F82" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G82" s="31" t="s">
+        <v>629</v>
+      </c>
+      <c r="H82" s="31" t="s">
+        <v>632</v>
+      </c>
+      <c r="I82" s="31" t="s">
+        <v>633</v>
       </c>
       <c r="J82" s="33" t="s">
         <v>87</v>
@@ -9166,17 +9388,17 @@
       <c r="E83" s="31" t="s">
         <v>431</v>
       </c>
-      <c r="F83" s="62">
-        <v>45677.474145532404</v>
-      </c>
-      <c r="G83" s="63">
-        <v>45677.474145532404</v>
-      </c>
-      <c r="H83" s="63" t="s">
-        <v>602</v>
-      </c>
-      <c r="I83" s="63" t="s">
-        <v>603</v>
+      <c r="F83" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G83" s="31" t="s">
+        <v>634</v>
+      </c>
+      <c r="H83" s="31" t="s">
+        <v>635</v>
+      </c>
+      <c r="I83" s="31" t="s">
+        <v>636</v>
       </c>
       <c r="J83" s="33" t="s">
         <v>87</v>
@@ -9225,17 +9447,17 @@
       <c r="E84" s="31" t="s">
         <v>432</v>
       </c>
-      <c r="F84" s="62">
-        <v>45677.474232615743</v>
-      </c>
-      <c r="G84" s="63">
-        <v>45677.474232615743</v>
-      </c>
-      <c r="H84" s="63" t="s">
-        <v>604</v>
-      </c>
-      <c r="I84" s="63" t="s">
-        <v>605</v>
+      <c r="F84" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G84" s="31" t="s">
+        <v>637</v>
+      </c>
+      <c r="H84" s="31" t="s">
+        <v>638</v>
+      </c>
+      <c r="I84" s="31" t="s">
+        <v>639</v>
       </c>
       <c r="J84" s="33" t="s">
         <v>87</v>
@@ -9284,17 +9506,17 @@
       <c r="E85" s="31" t="s">
         <v>433</v>
       </c>
-      <c r="F85" s="62">
-        <v>45677.474316134256</v>
-      </c>
-      <c r="G85" s="63">
-        <v>45677.474316134256</v>
-      </c>
-      <c r="H85" s="63" t="s">
-        <v>606</v>
-      </c>
-      <c r="I85" s="63" t="s">
-        <v>607</v>
+      <c r="F85" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G85" s="31" t="s">
+        <v>637</v>
+      </c>
+      <c r="H85" s="31" t="s">
+        <v>640</v>
+      </c>
+      <c r="I85" s="31" t="s">
+        <v>641</v>
       </c>
       <c r="J85" s="33" t="s">
         <v>87</v>
@@ -9343,17 +9565,17 @@
       <c r="E86" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="F86" s="62">
-        <v>45677.474400543979</v>
-      </c>
-      <c r="G86" s="63">
-        <v>45677.474400543979</v>
-      </c>
-      <c r="H86" s="63" t="s">
-        <v>608</v>
-      </c>
-      <c r="I86" s="63" t="s">
-        <v>609</v>
+      <c r="F86" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G86" s="31" t="s">
+        <v>642</v>
+      </c>
+      <c r="H86" s="31" t="s">
+        <v>643</v>
+      </c>
+      <c r="I86" s="31" t="s">
+        <v>644</v>
       </c>
       <c r="J86" s="33" t="s">
         <v>87</v>
@@ -9402,17 +9624,17 @@
       <c r="E87" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="F87" s="62">
-        <v>45677.474484918981</v>
-      </c>
-      <c r="G87" s="63">
-        <v>45677.474484918981</v>
-      </c>
-      <c r="H87" s="63" t="s">
-        <v>610</v>
-      </c>
-      <c r="I87" s="63" t="s">
-        <v>611</v>
+      <c r="F87" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G87" s="31" t="s">
+        <v>642</v>
+      </c>
+      <c r="H87" s="31" t="s">
+        <v>645</v>
+      </c>
+      <c r="I87" s="31" t="s">
+        <v>646</v>
       </c>
       <c r="J87" s="33" t="s">
         <v>87</v>
@@ -9461,17 +9683,17 @@
       <c r="E88" s="31" t="s">
         <v>434</v>
       </c>
-      <c r="F88" s="62">
-        <v>45677.474568182872</v>
-      </c>
-      <c r="G88" s="63">
-        <v>45677.474568182872</v>
-      </c>
-      <c r="H88" s="63" t="s">
-        <v>612</v>
-      </c>
-      <c r="I88" s="63" t="s">
-        <v>613</v>
+      <c r="F88" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G88" s="31" t="s">
+        <v>647</v>
+      </c>
+      <c r="H88" s="31" t="s">
+        <v>648</v>
+      </c>
+      <c r="I88" s="31" t="s">
+        <v>649</v>
       </c>
       <c r="J88" s="33" t="s">
         <v>87</v>
@@ -9520,17 +9742,17 @@
       <c r="E89" s="31" t="s">
         <v>435</v>
       </c>
-      <c r="F89" s="62">
-        <v>45677.47465891204</v>
-      </c>
-      <c r="G89" s="63">
-        <v>45677.47465891204</v>
-      </c>
-      <c r="H89" s="63" t="s">
-        <v>614</v>
-      </c>
-      <c r="I89" s="63" t="s">
-        <v>615</v>
+      <c r="F89" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G89" s="31" t="s">
+        <v>650</v>
+      </c>
+      <c r="H89" s="31" t="s">
+        <v>651</v>
+      </c>
+      <c r="I89" s="31" t="s">
+        <v>652</v>
       </c>
       <c r="J89" s="33" t="s">
         <v>87</v>
@@ -9579,17 +9801,17 @@
       <c r="E90" s="31" t="s">
         <v>436</v>
       </c>
-      <c r="F90" s="62">
-        <v>45677.474742164355</v>
-      </c>
-      <c r="G90" s="63">
-        <v>45677.474742164355</v>
-      </c>
-      <c r="H90" s="63" t="s">
-        <v>616</v>
-      </c>
-      <c r="I90" s="63" t="s">
-        <v>617</v>
+      <c r="F90" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G90" s="31" t="s">
+        <v>650</v>
+      </c>
+      <c r="H90" s="31" t="s">
+        <v>653</v>
+      </c>
+      <c r="I90" s="31" t="s">
+        <v>654</v>
       </c>
       <c r="J90" s="33" t="s">
         <v>87</v>
@@ -9638,17 +9860,17 @@
       <c r="E91" s="31" t="s">
         <v>437</v>
       </c>
-      <c r="F91" s="62">
-        <v>45677.474826412035</v>
-      </c>
-      <c r="G91" s="63">
-        <v>45677.474826412035</v>
-      </c>
-      <c r="H91" s="63" t="s">
-        <v>618</v>
-      </c>
-      <c r="I91" s="63" t="s">
-        <v>619</v>
+      <c r="F91" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G91" s="31" t="s">
+        <v>655</v>
+      </c>
+      <c r="H91" s="31" t="s">
+        <v>656</v>
+      </c>
+      <c r="I91" s="31" t="s">
+        <v>657</v>
       </c>
       <c r="J91" s="33" t="s">
         <v>87</v>
@@ -9697,17 +9919,17 @@
       <c r="E92" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="F92" s="62">
-        <v>45677.474911956022</v>
-      </c>
-      <c r="G92" s="63">
-        <v>45677.474911956022</v>
-      </c>
-      <c r="H92" s="63" t="s">
-        <v>620</v>
-      </c>
-      <c r="I92" s="63" t="s">
-        <v>621</v>
+      <c r="F92" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G92" s="31" t="s">
+        <v>655</v>
+      </c>
+      <c r="H92" s="31" t="s">
+        <v>658</v>
+      </c>
+      <c r="I92" s="31" t="s">
+        <v>659</v>
       </c>
       <c r="J92" s="33" t="s">
         <v>87</v>
@@ -9756,17 +9978,17 @@
       <c r="E93" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="F93" s="62">
-        <v>45677.474996053243</v>
-      </c>
-      <c r="G93" s="63">
-        <v>45677.474996053243</v>
-      </c>
-      <c r="H93" s="63" t="s">
-        <v>622</v>
-      </c>
-      <c r="I93" s="63" t="s">
-        <v>623</v>
+      <c r="F93" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G93" s="31" t="s">
+        <v>660</v>
+      </c>
+      <c r="H93" s="31" t="s">
+        <v>661</v>
+      </c>
+      <c r="I93" s="31" t="s">
+        <v>662</v>
       </c>
       <c r="J93" s="33" t="s">
         <v>87</v>
@@ -9815,17 +10037,17 @@
       <c r="E94" s="31" t="s">
         <v>438</v>
       </c>
-      <c r="F94" s="62">
-        <v>45677.475078854164</v>
-      </c>
-      <c r="G94" s="63">
-        <v>45677.475078854164</v>
-      </c>
-      <c r="H94" s="63" t="s">
-        <v>624</v>
-      </c>
-      <c r="I94" s="63" t="s">
-        <v>625</v>
+      <c r="F94" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G94" s="31" t="s">
+        <v>663</v>
+      </c>
+      <c r="H94" s="31" t="s">
+        <v>664</v>
+      </c>
+      <c r="I94" s="31" t="s">
+        <v>665</v>
       </c>
       <c r="J94" s="33" t="s">
         <v>87</v>
@@ -9874,17 +10096,17 @@
       <c r="E95" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="F95" s="62">
-        <v>45677.475191365738</v>
-      </c>
-      <c r="G95" s="63">
-        <v>45677.475191365738</v>
-      </c>
-      <c r="H95" s="63" t="s">
-        <v>626</v>
-      </c>
-      <c r="I95" s="63" t="s">
-        <v>627</v>
+      <c r="F95" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G95" s="31" t="s">
+        <v>663</v>
+      </c>
+      <c r="H95" s="31" t="s">
+        <v>666</v>
+      </c>
+      <c r="I95" s="31" t="s">
+        <v>667</v>
       </c>
       <c r="J95" s="33" t="s">
         <v>87</v>
@@ -9933,17 +10155,17 @@
       <c r="E96" s="31" t="s">
         <v>439</v>
       </c>
-      <c r="F96" s="62">
-        <v>45677.475282291663</v>
-      </c>
-      <c r="G96" s="63">
-        <v>45677.475282291663</v>
-      </c>
-      <c r="H96" s="63" t="s">
-        <v>628</v>
-      </c>
-      <c r="I96" s="63" t="s">
-        <v>629</v>
+      <c r="F96" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G96" s="31" t="s">
+        <v>668</v>
+      </c>
+      <c r="H96" s="31" t="s">
+        <v>669</v>
+      </c>
+      <c r="I96" s="31" t="s">
+        <v>670</v>
       </c>
       <c r="J96" s="33" t="s">
         <v>87</v>
@@ -11196,17 +11418,17 @@
       <c r="E125" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="F125" s="62">
-        <v>45677.475367476851</v>
-      </c>
-      <c r="G125" s="63">
-        <v>45677.475367476851</v>
-      </c>
-      <c r="H125" s="63" t="s">
-        <v>630</v>
-      </c>
-      <c r="I125" s="63" t="s">
-        <v>631</v>
+      <c r="F125" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G125" s="31" t="s">
+        <v>668</v>
+      </c>
+      <c r="H125" s="31" t="s">
+        <v>671</v>
+      </c>
+      <c r="I125" s="31" t="s">
+        <v>672</v>
       </c>
       <c r="J125" s="33" t="s">
         <v>87</v>
@@ -11255,17 +11477,17 @@
       <c r="E126" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="F126" s="62">
-        <v>45677.475451851853</v>
-      </c>
-      <c r="G126" s="63">
-        <v>45677.475451851853</v>
-      </c>
-      <c r="H126" s="63" t="s">
-        <v>632</v>
-      </c>
-      <c r="I126" s="63" t="s">
-        <v>633</v>
+      <c r="F126" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G126" s="31" t="s">
+        <v>673</v>
+      </c>
+      <c r="H126" s="31" t="s">
+        <v>674</v>
+      </c>
+      <c r="I126" s="31" t="s">
+        <v>675</v>
       </c>
       <c r="J126" s="33" t="s">
         <v>87</v>
@@ -11314,17 +11536,17 @@
       <c r="E127" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="F127" s="62">
-        <v>45677.475534687503</v>
-      </c>
-      <c r="G127" s="63">
-        <v>45677.475534687503</v>
-      </c>
-      <c r="H127" s="63" t="s">
-        <v>634</v>
-      </c>
-      <c r="I127" s="63" t="s">
-        <v>635</v>
+      <c r="F127" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G127" s="31" t="s">
+        <v>673</v>
+      </c>
+      <c r="H127" s="31" t="s">
+        <v>676</v>
+      </c>
+      <c r="I127" s="31" t="s">
+        <v>677</v>
       </c>
       <c r="J127" s="33" t="s">
         <v>87</v>
@@ -11373,17 +11595,17 @@
       <c r="E128" s="31" t="s">
         <v>464</v>
       </c>
-      <c r="F128" s="62">
-        <v>45677.475618449076</v>
-      </c>
-      <c r="G128" s="63">
-        <v>45677.475618449076</v>
-      </c>
-      <c r="H128" s="63" t="s">
-        <v>636</v>
-      </c>
-      <c r="I128" s="63" t="s">
-        <v>637</v>
+      <c r="F128" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G128" s="31" t="s">
+        <v>678</v>
+      </c>
+      <c r="H128" s="31" t="s">
+        <v>679</v>
+      </c>
+      <c r="I128" s="31" t="s">
+        <v>680</v>
       </c>
       <c r="J128" s="33" t="s">
         <v>87</v>
@@ -11432,17 +11654,17 @@
       <c r="E129" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="F129" s="62">
-        <v>45677.475701516203</v>
-      </c>
-      <c r="G129" s="63">
-        <v>45677.475701516203</v>
-      </c>
-      <c r="H129" s="63" t="s">
-        <v>638</v>
-      </c>
-      <c r="I129" s="63" t="s">
-        <v>639</v>
+      <c r="F129" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G129" s="31" t="s">
+        <v>681</v>
+      </c>
+      <c r="H129" s="31" t="s">
+        <v>682</v>
+      </c>
+      <c r="I129" s="31" t="s">
+        <v>683</v>
       </c>
       <c r="J129" s="33" t="s">
         <v>87</v>
@@ -11491,17 +11713,17 @@
       <c r="E130" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="F130" s="62">
-        <v>45677.475785694442</v>
-      </c>
-      <c r="G130" s="63">
-        <v>45677.475785694442</v>
-      </c>
-      <c r="H130" s="63" t="s">
-        <v>640</v>
-      </c>
-      <c r="I130" s="63" t="s">
-        <v>641</v>
+      <c r="F130" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G130" s="31" t="s">
+        <v>681</v>
+      </c>
+      <c r="H130" s="31" t="s">
+        <v>684</v>
+      </c>
+      <c r="I130" s="31" t="s">
+        <v>685</v>
       </c>
       <c r="J130" s="33" t="s">
         <v>87</v>
@@ -11550,17 +11772,17 @@
       <c r="E131" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="F131" s="62">
-        <v>45677.475881041668</v>
-      </c>
-      <c r="G131" s="63">
-        <v>45677.475881041668</v>
-      </c>
-      <c r="H131" s="63" t="s">
-        <v>642</v>
-      </c>
-      <c r="I131" s="63" t="s">
-        <v>643</v>
+      <c r="F131" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G131" s="31" t="s">
+        <v>686</v>
+      </c>
+      <c r="H131" s="31" t="s">
+        <v>687</v>
+      </c>
+      <c r="I131" s="31" t="s">
+        <v>688</v>
       </c>
       <c r="J131" s="33" t="s">
         <v>87</v>
@@ -11609,17 +11831,17 @@
       <c r="E132" s="31" t="s">
         <v>465</v>
       </c>
-      <c r="F132" s="62">
-        <v>45677.475986759258</v>
-      </c>
-      <c r="G132" s="63">
-        <v>45677.475986759258</v>
-      </c>
-      <c r="H132" s="63" t="s">
-        <v>644</v>
-      </c>
-      <c r="I132" s="63" t="s">
-        <v>645</v>
+      <c r="F132" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G132" s="31" t="s">
+        <v>686</v>
+      </c>
+      <c r="H132" s="31" t="s">
+        <v>689</v>
+      </c>
+      <c r="I132" s="31" t="s">
+        <v>690</v>
       </c>
       <c r="J132" s="33" t="s">
         <v>87</v>
@@ -11668,17 +11890,17 @@
       <c r="E133" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="F133" s="62">
-        <v>45677.476075381943</v>
-      </c>
-      <c r="G133" s="63">
-        <v>45677.476075370367</v>
-      </c>
-      <c r="H133" s="63" t="s">
-        <v>646</v>
-      </c>
-      <c r="I133" s="63" t="s">
-        <v>647</v>
+      <c r="F133" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G133" s="31" t="s">
+        <v>691</v>
+      </c>
+      <c r="H133" s="31" t="s">
+        <v>692</v>
+      </c>
+      <c r="I133" s="31" t="s">
+        <v>693</v>
       </c>
       <c r="J133" s="33" t="s">
         <v>87</v>
@@ -11727,17 +11949,17 @@
       <c r="E134" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="F134" s="62">
-        <v>45677.476173587966</v>
-      </c>
-      <c r="G134" s="63">
-        <v>45677.476173587966</v>
-      </c>
-      <c r="H134" s="63" t="s">
-        <v>648</v>
-      </c>
-      <c r="I134" s="63" t="s">
-        <v>649</v>
+      <c r="F134" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G134" s="31" t="s">
+        <v>691</v>
+      </c>
+      <c r="H134" s="31" t="s">
+        <v>694</v>
+      </c>
+      <c r="I134" s="31" t="s">
+        <v>695</v>
       </c>
       <c r="J134" s="33" t="s">
         <v>87</v>
@@ -11786,17 +12008,17 @@
       <c r="E135" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="F135" s="62">
-        <v>45677.476259930554</v>
-      </c>
-      <c r="G135" s="63">
-        <v>45677.476259930554</v>
-      </c>
-      <c r="H135" s="63" t="s">
-        <v>650</v>
-      </c>
-      <c r="I135" s="63" t="s">
-        <v>651</v>
+      <c r="F135" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G135" s="31" t="s">
+        <v>696</v>
+      </c>
+      <c r="H135" s="31" t="s">
+        <v>697</v>
+      </c>
+      <c r="I135" s="31" t="s">
+        <v>698</v>
       </c>
       <c r="J135" s="33" t="s">
         <v>87</v>
@@ -11845,17 +12067,17 @@
       <c r="E136" s="31" t="s">
         <v>392</v>
       </c>
-      <c r="F136" s="62">
-        <v>45677.476347708332</v>
-      </c>
-      <c r="G136" s="63">
-        <v>45677.476347708332</v>
-      </c>
-      <c r="H136" s="63" t="s">
-        <v>652</v>
-      </c>
-      <c r="I136" s="63" t="s">
-        <v>653</v>
+      <c r="F136" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G136" s="31" t="s">
+        <v>699</v>
+      </c>
+      <c r="H136" s="31" t="s">
+        <v>700</v>
+      </c>
+      <c r="I136" s="31" t="s">
+        <v>701</v>
       </c>
       <c r="J136" s="33" t="s">
         <v>87</v>
@@ -11904,17 +12126,17 @@
       <c r="E137" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="F137" s="62">
-        <v>45677.476437291669</v>
-      </c>
-      <c r="G137" s="63">
-        <v>45677.476437291669</v>
-      </c>
-      <c r="H137" s="63" t="s">
-        <v>654</v>
-      </c>
-      <c r="I137" s="63" t="s">
-        <v>655</v>
+      <c r="F137" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G137" s="31" t="s">
+        <v>699</v>
+      </c>
+      <c r="H137" s="31" t="s">
+        <v>702</v>
+      </c>
+      <c r="I137" s="31" t="s">
+        <v>703</v>
       </c>
       <c r="J137" s="33" t="s">
         <v>87</v>
@@ -11963,17 +12185,17 @@
       <c r="E138" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="F138" s="62">
-        <v>45677.476524953701</v>
-      </c>
-      <c r="G138" s="63">
-        <v>45677.476524953701</v>
-      </c>
-      <c r="H138" s="63" t="s">
-        <v>656</v>
-      </c>
-      <c r="I138" s="63" t="s">
-        <v>657</v>
+      <c r="F138" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G138" s="31" t="s">
+        <v>704</v>
+      </c>
+      <c r="H138" s="31" t="s">
+        <v>705</v>
+      </c>
+      <c r="I138" s="31" t="s">
+        <v>706</v>
       </c>
       <c r="J138" s="33" t="s">
         <v>87</v>
@@ -12022,17 +12244,17 @@
       <c r="E139" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="F139" s="62">
-        <v>45677.476612407409</v>
-      </c>
-      <c r="G139" s="63">
-        <v>45677.476612407409</v>
-      </c>
-      <c r="H139" s="63" t="s">
-        <v>658</v>
-      </c>
-      <c r="I139" s="63" t="s">
-        <v>659</v>
+      <c r="F139" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G139" s="31" t="s">
+        <v>707</v>
+      </c>
+      <c r="H139" s="31" t="s">
+        <v>708</v>
+      </c>
+      <c r="I139" s="31" t="s">
+        <v>709</v>
       </c>
       <c r="J139" s="33" t="s">
         <v>87</v>
@@ -12081,17 +12303,17 @@
       <c r="E140" s="31" t="s">
         <v>391</v>
       </c>
-      <c r="F140" s="62">
-        <v>45677.476697210652</v>
-      </c>
-      <c r="G140" s="63">
-        <v>45677.476697210652</v>
-      </c>
-      <c r="H140" s="63" t="s">
-        <v>660</v>
-      </c>
-      <c r="I140" s="63" t="s">
-        <v>661</v>
+      <c r="F140" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G140" s="31" t="s">
+        <v>707</v>
+      </c>
+      <c r="H140" s="31" t="s">
+        <v>710</v>
+      </c>
+      <c r="I140" s="31" t="s">
+        <v>711</v>
       </c>
       <c r="J140" s="33" t="s">
         <v>87</v>
@@ -12140,17 +12362,17 @@
       <c r="E141" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="F141" s="62">
-        <v>45677.476782233796</v>
-      </c>
-      <c r="G141" s="63">
-        <v>45677.476782233796</v>
-      </c>
-      <c r="H141" s="63" t="s">
-        <v>662</v>
-      </c>
-      <c r="I141" s="63" t="s">
-        <v>663</v>
+      <c r="F141" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G141" s="31" t="s">
+        <v>712</v>
+      </c>
+      <c r="H141" s="31" t="s">
+        <v>713</v>
+      </c>
+      <c r="I141" s="31" t="s">
+        <v>714</v>
       </c>
       <c r="J141" s="33" t="s">
         <v>87</v>
@@ -12199,17 +12421,17 @@
       <c r="E142" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="F142" s="62">
-        <v>45677.476867835649</v>
-      </c>
-      <c r="G142" s="63">
-        <v>45677.476867835649</v>
-      </c>
-      <c r="H142" s="63" t="s">
-        <v>664</v>
-      </c>
-      <c r="I142" s="63" t="s">
-        <v>665</v>
+      <c r="F142" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G142" s="31" t="s">
+        <v>712</v>
+      </c>
+      <c r="H142" s="31" t="s">
+        <v>715</v>
+      </c>
+      <c r="I142" s="31" t="s">
+        <v>716</v>
       </c>
       <c r="J142" s="33" t="s">
         <v>87</v>
@@ -12258,17 +12480,17 @@
       <c r="E143" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="F143" s="62">
-        <v>45677.476952152778</v>
-      </c>
-      <c r="G143" s="63">
-        <v>45677.476952152778</v>
-      </c>
-      <c r="H143" s="63" t="s">
-        <v>666</v>
-      </c>
-      <c r="I143" s="63" t="s">
-        <v>667</v>
+      <c r="F143" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G143" s="31" t="s">
+        <v>717</v>
+      </c>
+      <c r="H143" s="31" t="s">
+        <v>718</v>
+      </c>
+      <c r="I143" s="31" t="s">
+        <v>719</v>
       </c>
       <c r="J143" s="33" t="s">
         <v>87</v>
@@ -12317,17 +12539,17 @@
       <c r="E144" s="31" t="s">
         <v>389</v>
       </c>
-      <c r="F144" s="62">
-        <v>45677.477037187498</v>
-      </c>
-      <c r="G144" s="63">
-        <v>45677.477037187498</v>
-      </c>
-      <c r="H144" s="63" t="s">
-        <v>668</v>
-      </c>
-      <c r="I144" s="63" t="s">
-        <v>669</v>
+      <c r="F144" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G144" s="31" t="s">
+        <v>720</v>
+      </c>
+      <c r="H144" s="31" t="s">
+        <v>721</v>
+      </c>
+      <c r="I144" s="31" t="s">
+        <v>722</v>
       </c>
       <c r="J144" s="33" t="s">
         <v>87</v>
@@ -12376,17 +12598,17 @@
       <c r="E145" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="F145" s="62">
-        <v>45677.477124027777</v>
-      </c>
-      <c r="G145" s="63">
-        <v>45677.477124027777</v>
-      </c>
-      <c r="H145" s="63" t="s">
-        <v>670</v>
-      </c>
-      <c r="I145" s="63" t="s">
-        <v>671</v>
+      <c r="F145" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G145" s="31" t="s">
+        <v>723</v>
+      </c>
+      <c r="H145" s="31" t="s">
+        <v>724</v>
+      </c>
+      <c r="I145" s="31" t="s">
+        <v>725</v>
       </c>
       <c r="J145" s="33" t="s">
         <v>87</v>
@@ -12435,17 +12657,17 @@
       <c r="E146" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="F146" s="62">
-        <v>45677.477210902776</v>
-      </c>
-      <c r="G146" s="63">
-        <v>45677.477210902776</v>
-      </c>
-      <c r="H146" s="63" t="s">
-        <v>672</v>
-      </c>
-      <c r="I146" s="63" t="s">
-        <v>673</v>
+      <c r="F146" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G146" s="31" t="s">
+        <v>723</v>
+      </c>
+      <c r="H146" s="31" t="s">
+        <v>726</v>
+      </c>
+      <c r="I146" s="31" t="s">
+        <v>727</v>
       </c>
       <c r="J146" s="33" t="s">
         <v>87</v>
@@ -12494,17 +12716,17 @@
       <c r="E147" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="F147" s="62">
-        <v>45677.477299641207</v>
-      </c>
-      <c r="G147" s="63">
-        <v>45677.477299641207</v>
-      </c>
-      <c r="H147" s="63" t="s">
-        <v>674</v>
-      </c>
-      <c r="I147" s="63" t="s">
-        <v>675</v>
+      <c r="F147" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G147" s="31" t="s">
+        <v>728</v>
+      </c>
+      <c r="H147" s="31" t="s">
+        <v>729</v>
+      </c>
+      <c r="I147" s="31" t="s">
+        <v>730</v>
       </c>
       <c r="J147" s="33" t="s">
         <v>87</v>
@@ -12553,17 +12775,17 @@
       <c r="E148" s="31" t="s">
         <v>466</v>
       </c>
-      <c r="F148" s="62">
-        <v>45677.477388622683</v>
-      </c>
-      <c r="G148" s="63">
-        <v>45677.477388622683</v>
-      </c>
-      <c r="H148" s="63" t="s">
-        <v>676</v>
-      </c>
-      <c r="I148" s="63" t="s">
-        <v>677</v>
+      <c r="F148" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G148" s="31" t="s">
+        <v>731</v>
+      </c>
+      <c r="H148" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="I148" s="31" t="s">
+        <v>733</v>
       </c>
       <c r="J148" s="33" t="s">
         <v>87</v>
@@ -12612,17 +12834,17 @@
       <c r="E149" s="31" t="s">
         <v>467</v>
       </c>
-      <c r="F149" s="62">
-        <v>45677.47747283565</v>
-      </c>
-      <c r="G149" s="63">
-        <v>45677.47747283565</v>
-      </c>
-      <c r="H149" s="63" t="s">
-        <v>678</v>
-      </c>
-      <c r="I149" s="63" t="s">
-        <v>679</v>
+      <c r="F149" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G149" s="31" t="s">
+        <v>731</v>
+      </c>
+      <c r="H149" s="31" t="s">
+        <v>734</v>
+      </c>
+      <c r="I149" s="31" t="s">
+        <v>735</v>
       </c>
       <c r="J149" s="33" t="s">
         <v>87</v>
@@ -12671,17 +12893,17 @@
       <c r="E150" s="31" t="s">
         <v>468</v>
       </c>
-      <c r="F150" s="62">
-        <v>45677.477479814814</v>
-      </c>
-      <c r="G150" s="63">
-        <v>45677.477479814814</v>
-      </c>
-      <c r="H150" s="63" t="s">
-        <v>680</v>
-      </c>
-      <c r="I150" s="63" t="s">
-        <v>681</v>
+      <c r="F150" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G150" s="31" t="s">
+        <v>736</v>
+      </c>
+      <c r="H150" s="31" t="s">
+        <v>737</v>
+      </c>
+      <c r="I150" s="31" t="s">
+        <v>738</v>
       </c>
       <c r="J150" s="33" t="s">
         <v>87</v>
@@ -12718,17 +12940,17 @@
       <c r="E151" s="31" t="s">
         <v>469</v>
       </c>
-      <c r="F151" s="62">
-        <v>45677.477488379627</v>
-      </c>
-      <c r="G151" s="63">
-        <v>45677.477488379627</v>
-      </c>
-      <c r="H151" s="63" t="s">
-        <v>682</v>
-      </c>
-      <c r="I151" s="63" t="s">
-        <v>683</v>
+      <c r="F151" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G151" s="31" t="s">
+        <v>736</v>
+      </c>
+      <c r="H151" s="31" t="s">
+        <v>739</v>
+      </c>
+      <c r="I151" s="31" t="s">
+        <v>740</v>
       </c>
       <c r="J151" s="33" t="s">
         <v>87</v>
@@ -12765,17 +12987,17 @@
       <c r="E152" s="31" t="s">
         <v>470</v>
       </c>
-      <c r="F152" s="62">
-        <v>45677.477495115738</v>
-      </c>
-      <c r="G152" s="63">
-        <v>45677.477495115738</v>
-      </c>
-      <c r="H152" s="63" t="s">
-        <v>684</v>
-      </c>
-      <c r="I152" s="63" t="s">
-        <v>685</v>
+      <c r="F152" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G152" s="31" t="s">
+        <v>741</v>
+      </c>
+      <c r="H152" s="31" t="s">
+        <v>742</v>
+      </c>
+      <c r="I152" s="31" t="s">
+        <v>743</v>
       </c>
       <c r="J152" s="33" t="s">
         <v>87</v>
@@ -12812,17 +13034,17 @@
       <c r="E153" s="31" t="s">
         <v>471</v>
       </c>
-      <c r="F153" s="62">
-        <v>45677.477503321759</v>
-      </c>
-      <c r="G153" s="63">
-        <v>45677.477503321759</v>
-      </c>
-      <c r="H153" s="63" t="s">
-        <v>686</v>
-      </c>
-      <c r="I153" s="63" t="s">
-        <v>687</v>
+      <c r="F153" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G153" s="31" t="s">
+        <v>741</v>
+      </c>
+      <c r="H153" s="31" t="s">
+        <v>744</v>
+      </c>
+      <c r="I153" s="31" t="s">
+        <v>745</v>
       </c>
       <c r="J153" s="33" t="s">
         <v>87</v>
@@ -12859,17 +13081,17 @@
       <c r="E154" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="F154" s="62">
-        <v>45677.477585624998</v>
-      </c>
-      <c r="G154" s="63">
-        <v>45677.477585624998</v>
-      </c>
-      <c r="H154" s="63" t="s">
-        <v>688</v>
-      </c>
-      <c r="I154" s="63" t="s">
-        <v>689</v>
+      <c r="F154" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G154" s="31" t="s">
+        <v>746</v>
+      </c>
+      <c r="H154" s="31" t="s">
+        <v>747</v>
+      </c>
+      <c r="I154" s="31" t="s">
+        <v>748</v>
       </c>
       <c r="J154" s="33" t="s">
         <v>87</v>
@@ -12918,17 +13140,17 @@
       <c r="E155" s="31" t="s">
         <v>472</v>
       </c>
-      <c r="F155" s="62">
-        <v>45677.47766773148</v>
-      </c>
-      <c r="G155" s="63">
-        <v>45677.47766773148</v>
-      </c>
-      <c r="H155" s="63" t="s">
-        <v>690</v>
-      </c>
-      <c r="I155" s="63" t="s">
-        <v>691</v>
+      <c r="F155" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G155" s="31" t="s">
+        <v>746</v>
+      </c>
+      <c r="H155" s="31" t="s">
+        <v>749</v>
+      </c>
+      <c r="I155" s="31" t="s">
+        <v>750</v>
       </c>
       <c r="J155" s="33" t="s">
         <v>87</v>
@@ -12977,17 +13199,17 @@
       <c r="E156" s="31" t="s">
         <v>473</v>
       </c>
-      <c r="F156" s="62">
-        <v>45677.47775208333</v>
-      </c>
-      <c r="G156" s="63">
-        <v>45677.47775208333</v>
-      </c>
-      <c r="H156" s="63" t="s">
-        <v>692</v>
-      </c>
-      <c r="I156" s="63" t="s">
-        <v>693</v>
+      <c r="F156" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G156" s="31" t="s">
+        <v>751</v>
+      </c>
+      <c r="H156" s="31" t="s">
+        <v>752</v>
+      </c>
+      <c r="I156" s="31" t="s">
+        <v>753</v>
       </c>
       <c r="J156" s="33" t="s">
         <v>87</v>
@@ -13036,17 +13258,17 @@
       <c r="E157" s="31" t="s">
         <v>474</v>
       </c>
-      <c r="F157" s="62">
-        <v>45677.47783447917</v>
-      </c>
-      <c r="G157" s="63">
-        <v>45677.47783447917</v>
-      </c>
-      <c r="H157" s="63" t="s">
-        <v>694</v>
-      </c>
-      <c r="I157" s="63" t="s">
-        <v>695</v>
+      <c r="F157" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G157" s="31" t="s">
+        <v>751</v>
+      </c>
+      <c r="H157" s="31" t="s">
+        <v>754</v>
+      </c>
+      <c r="I157" s="31" t="s">
+        <v>755</v>
       </c>
       <c r="J157" s="33" t="s">
         <v>87</v>
@@ -13095,17 +13317,17 @@
       <c r="E158" s="31" t="s">
         <v>475</v>
       </c>
-      <c r="F158" s="62">
-        <v>45677.477917048614</v>
-      </c>
-      <c r="G158" s="63">
-        <v>45677.477917048614</v>
-      </c>
-      <c r="H158" s="63" t="s">
-        <v>696</v>
-      </c>
-      <c r="I158" s="63" t="s">
-        <v>697</v>
+      <c r="F158" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G158" s="31" t="s">
+        <v>756</v>
+      </c>
+      <c r="H158" s="31" t="s">
+        <v>757</v>
+      </c>
+      <c r="I158" s="31" t="s">
+        <v>758</v>
       </c>
       <c r="J158" s="33" t="s">
         <v>87</v>
@@ -13154,17 +13376,17 @@
       <c r="E159" s="31" t="s">
         <v>476</v>
       </c>
-      <c r="F159" s="62">
-        <v>45677.478005127312</v>
-      </c>
-      <c r="G159" s="63">
-        <v>45677.478005127312</v>
-      </c>
-      <c r="H159" s="63" t="s">
-        <v>698</v>
-      </c>
-      <c r="I159" s="63" t="s">
-        <v>699</v>
+      <c r="F159" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G159" s="31" t="s">
+        <v>759</v>
+      </c>
+      <c r="H159" s="31" t="s">
+        <v>760</v>
+      </c>
+      <c r="I159" s="31" t="s">
+        <v>761</v>
       </c>
       <c r="J159" s="33" t="s">
         <v>87</v>
@@ -13213,17 +13435,17 @@
       <c r="E160" s="31" t="s">
         <v>477</v>
       </c>
-      <c r="F160" s="62">
-        <v>45677.478089432872</v>
-      </c>
-      <c r="G160" s="63">
-        <v>45677.478089432872</v>
-      </c>
-      <c r="H160" s="63" t="s">
-        <v>700</v>
-      </c>
-      <c r="I160" s="63" t="s">
-        <v>701</v>
+      <c r="F160" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G160" s="31" t="s">
+        <v>759</v>
+      </c>
+      <c r="H160" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="I160" s="31" t="s">
+        <v>763</v>
       </c>
       <c r="J160" s="33" t="s">
         <v>87</v>
@@ -13272,17 +13494,17 @@
       <c r="E161" s="31" t="s">
         <v>478</v>
       </c>
-      <c r="F161" s="62">
-        <v>45677.478173657408</v>
-      </c>
-      <c r="G161" s="63">
-        <v>45677.478173657408</v>
-      </c>
-      <c r="H161" s="63" t="s">
-        <v>702</v>
-      </c>
-      <c r="I161" s="63" t="s">
-        <v>703</v>
+      <c r="F161" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G161" s="31" t="s">
+        <v>764</v>
+      </c>
+      <c r="H161" s="31" t="s">
+        <v>765</v>
+      </c>
+      <c r="I161" s="31" t="s">
+        <v>766</v>
       </c>
       <c r="J161" s="33" t="s">
         <v>87</v>
@@ -13331,17 +13553,17 @@
       <c r="E162" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="F162" s="62">
-        <v>45677.478259398151</v>
-      </c>
-      <c r="G162" s="63">
-        <v>45677.478259398151</v>
-      </c>
-      <c r="H162" s="63" t="s">
-        <v>704</v>
-      </c>
-      <c r="I162" s="63" t="s">
-        <v>705</v>
+      <c r="F162" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G162" s="31" t="s">
+        <v>764</v>
+      </c>
+      <c r="H162" s="31" t="s">
+        <v>767</v>
+      </c>
+      <c r="I162" s="31" t="s">
+        <v>768</v>
       </c>
       <c r="J162" s="33" t="s">
         <v>87</v>
@@ -13390,17 +13612,17 @@
       <c r="E163" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="F163" s="62">
-        <v>45677.478341249996</v>
-      </c>
-      <c r="G163" s="63">
-        <v>45677.478341249996</v>
-      </c>
-      <c r="H163" s="63" t="s">
-        <v>706</v>
-      </c>
-      <c r="I163" s="63" t="s">
-        <v>707</v>
+      <c r="F163" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G163" s="31" t="s">
+        <v>769</v>
+      </c>
+      <c r="H163" s="31" t="s">
+        <v>770</v>
+      </c>
+      <c r="I163" s="31" t="s">
+        <v>771</v>
       </c>
       <c r="J163" s="33" t="s">
         <v>87</v>
@@ -13449,17 +13671,17 @@
       <c r="E164" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="F164" s="62">
-        <v>45677.478424340276</v>
-      </c>
-      <c r="G164" s="63">
-        <v>45677.478424340276</v>
-      </c>
-      <c r="H164" s="63" t="s">
-        <v>708</v>
-      </c>
-      <c r="I164" s="63" t="s">
-        <v>709</v>
+      <c r="F164" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G164" s="31" t="s">
+        <v>769</v>
+      </c>
+      <c r="H164" s="31" t="s">
+        <v>772</v>
+      </c>
+      <c r="I164" s="31" t="s">
+        <v>773</v>
       </c>
       <c r="J164" s="33" t="s">
         <v>87</v>
@@ -13508,17 +13730,17 @@
       <c r="E165" s="31" t="s">
         <v>382</v>
       </c>
-      <c r="F165" s="62">
-        <v>45677.478507129628</v>
-      </c>
-      <c r="G165" s="63">
-        <v>45677.478507129628</v>
-      </c>
-      <c r="H165" s="63" t="s">
-        <v>710</v>
-      </c>
-      <c r="I165" s="63" t="s">
-        <v>711</v>
+      <c r="F165" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G165" s="31" t="s">
+        <v>774</v>
+      </c>
+      <c r="H165" s="31" t="s">
+        <v>775</v>
+      </c>
+      <c r="I165" s="31" t="s">
+        <v>776</v>
       </c>
       <c r="J165" s="33" t="s">
         <v>87</v>
@@ -13567,17 +13789,17 @@
       <c r="E166" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="F166" s="62">
-        <v>45677.478591122686</v>
-      </c>
-      <c r="G166" s="63">
-        <v>45677.478591122686</v>
-      </c>
-      <c r="H166" s="63" t="s">
-        <v>712</v>
-      </c>
-      <c r="I166" s="63" t="s">
-        <v>713</v>
+      <c r="F166" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G166" s="31" t="s">
+        <v>777</v>
+      </c>
+      <c r="H166" s="31" t="s">
+        <v>778</v>
+      </c>
+      <c r="I166" s="31" t="s">
+        <v>779</v>
       </c>
       <c r="J166" s="33" t="s">
         <v>87</v>
@@ -13626,17 +13848,17 @@
       <c r="E167" s="31" t="s">
         <v>384</v>
       </c>
-      <c r="F167" s="62">
-        <v>45677.478673738427</v>
-      </c>
-      <c r="G167" s="63">
-        <v>45677.478673738427</v>
-      </c>
-      <c r="H167" s="63" t="s">
-        <v>714</v>
-      </c>
-      <c r="I167" s="63" t="s">
-        <v>715</v>
+      <c r="F167" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G167" s="31" t="s">
+        <v>777</v>
+      </c>
+      <c r="H167" s="31" t="s">
+        <v>780</v>
+      </c>
+      <c r="I167" s="31" t="s">
+        <v>781</v>
       </c>
       <c r="J167" s="33" t="s">
         <v>87</v>
@@ -13685,17 +13907,17 @@
       <c r="E168" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="F168" s="62">
-        <v>45677.478802708334</v>
-      </c>
-      <c r="G168" s="63">
-        <v>45677.478802708334</v>
-      </c>
-      <c r="H168" s="63" t="s">
-        <v>716</v>
-      </c>
-      <c r="I168" s="63" t="s">
-        <v>717</v>
+      <c r="F168" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G168" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="H168" s="31" t="s">
+        <v>783</v>
+      </c>
+      <c r="I168" s="31" t="s">
+        <v>784</v>
       </c>
       <c r="J168" s="33" t="s">
         <v>87</v>
@@ -13744,17 +13966,17 @@
       <c r="E169" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="F169" s="62">
-        <v>45677.47888771991</v>
-      </c>
-      <c r="G169" s="63">
-        <v>45677.47888771991</v>
-      </c>
-      <c r="H169" s="63" t="s">
-        <v>718</v>
-      </c>
-      <c r="I169" s="63" t="s">
-        <v>719</v>
+      <c r="F169" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G169" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="H169" s="31" t="s">
+        <v>785</v>
+      </c>
+      <c r="I169" s="31" t="s">
+        <v>786</v>
       </c>
       <c r="J169" s="33" t="s">
         <v>87</v>
@@ -13803,17 +14025,17 @@
       <c r="E170" s="31" t="s">
         <v>387</v>
       </c>
-      <c r="F170" s="62">
-        <v>45677.478970717595</v>
-      </c>
-      <c r="G170" s="63">
-        <v>45677.478970717595</v>
-      </c>
-      <c r="H170" s="63" t="s">
-        <v>720</v>
-      </c>
-      <c r="I170" s="63" t="s">
-        <v>721</v>
+      <c r="F170" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G170" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="H170" s="31" t="s">
+        <v>788</v>
+      </c>
+      <c r="I170" s="31" t="s">
+        <v>789</v>
       </c>
       <c r="J170" s="33" t="s">
         <v>87</v>
@@ -13862,17 +14084,17 @@
       <c r="E171" s="31" t="s">
         <v>388</v>
       </c>
-      <c r="F171" s="62">
-        <v>45677.479054224539</v>
-      </c>
-      <c r="G171" s="63">
-        <v>45677.479054224539</v>
-      </c>
-      <c r="H171" s="63" t="s">
-        <v>722</v>
-      </c>
-      <c r="I171" s="63" t="s">
-        <v>723</v>
+      <c r="F171" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G171" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="H171" s="31" t="s">
+        <v>790</v>
+      </c>
+      <c r="I171" s="31" t="s">
+        <v>791</v>
       </c>
       <c r="J171" s="33" t="s">
         <v>87</v>
@@ -13921,17 +14143,17 @@
       <c r="E172" s="31" t="s">
         <v>390</v>
       </c>
-      <c r="F172" s="62">
-        <v>45677.479137303242</v>
-      </c>
-      <c r="G172" s="63">
-        <v>45677.479137303242</v>
-      </c>
-      <c r="H172" s="63" t="s">
-        <v>724</v>
-      </c>
-      <c r="I172" s="63" t="s">
-        <v>725</v>
+      <c r="F172" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G172" s="31" t="s">
+        <v>792</v>
+      </c>
+      <c r="H172" s="31" t="s">
+        <v>793</v>
+      </c>
+      <c r="I172" s="31" t="s">
+        <v>794</v>
       </c>
       <c r="J172" s="33" t="s">
         <v>87</v>
@@ -14711,17 +14933,17 @@
       <c r="E190" s="31" t="s">
         <v>494</v>
       </c>
-      <c r="F190" s="62">
-        <v>45677.479145439815</v>
-      </c>
-      <c r="G190" s="63">
-        <v>45677.479145439815</v>
+      <c r="F190" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G190" s="31" t="s">
+        <v>792</v>
       </c>
       <c r="H190" s="31" t="s">
-        <v>726</v>
+        <v>795</v>
       </c>
       <c r="I190" s="31" t="s">
-        <v>727</v>
+        <v>796</v>
       </c>
       <c r="J190" s="33" t="s">
         <v>87</v>
@@ -14758,17 +14980,17 @@
       <c r="E191" s="31" t="s">
         <v>495</v>
       </c>
-      <c r="F191" s="62">
-        <v>45677.479153449072</v>
-      </c>
-      <c r="G191" s="63">
-        <v>45677.479153449072</v>
+      <c r="F191" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G191" s="31" t="s">
+        <v>797</v>
       </c>
       <c r="H191" s="31" t="s">
-        <v>728</v>
+        <v>798</v>
       </c>
       <c r="I191" s="31" t="s">
-        <v>729</v>
+        <v>799</v>
       </c>
       <c r="J191" s="33" t="s">
         <v>87</v>
@@ -14805,17 +15027,17 @@
       <c r="E192" s="31" t="s">
         <v>496</v>
       </c>
-      <c r="F192" s="62">
-        <v>45677.479163773147</v>
-      </c>
-      <c r="G192" s="63">
-        <v>45677.479163773147</v>
+      <c r="F192" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G192" s="31" t="s">
+        <v>800</v>
       </c>
       <c r="H192" s="31" t="s">
-        <v>730</v>
+        <v>801</v>
       </c>
       <c r="I192" s="31" t="s">
-        <v>731</v>
+        <v>802</v>
       </c>
       <c r="J192" s="33" t="s">
         <v>87</v>
@@ -14926,17 +15148,17 @@
       <c r="E195" s="31" t="s">
         <v>499</v>
       </c>
-      <c r="F195" s="62">
-        <v>45677.479171874998</v>
-      </c>
-      <c r="G195" s="63">
-        <v>45677.479171874998</v>
+      <c r="F195" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G195" s="31" t="s">
+        <v>800</v>
       </c>
       <c r="H195" s="31" t="s">
-        <v>732</v>
+        <v>803</v>
       </c>
       <c r="I195" s="31" t="s">
-        <v>733</v>
+        <v>804</v>
       </c>
       <c r="J195" s="33" t="s">
         <v>87</v>
@@ -14973,17 +15195,17 @@
       <c r="E196" s="31" t="s">
         <v>500</v>
       </c>
-      <c r="F196" s="62">
-        <v>45677.479187881945</v>
-      </c>
-      <c r="G196" s="63">
-        <v>45677.479187881945</v>
+      <c r="F196" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G196" s="31" t="s">
+        <v>805</v>
       </c>
       <c r="H196" s="31" t="s">
-        <v>734</v>
+        <v>806</v>
       </c>
       <c r="I196" s="31" t="s">
-        <v>735</v>
+        <v>807</v>
       </c>
       <c r="J196" s="33" t="s">
         <v>87</v>
@@ -15020,17 +15242,17 @@
       <c r="E197" s="41" t="s">
         <v>501</v>
       </c>
-      <c r="F197" s="62">
-        <v>45677.479197638888</v>
-      </c>
-      <c r="G197" s="63">
-        <v>45677.479197638888</v>
-      </c>
-      <c r="H197" s="63" t="s">
-        <v>736</v>
+      <c r="F197" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G197" s="31" t="s">
+        <v>805</v>
+      </c>
+      <c r="H197" s="31" t="s">
+        <v>808</v>
       </c>
       <c r="I197" s="31" t="s">
-        <v>737</v>
+        <v>809</v>
       </c>
       <c r="J197" s="33" t="s">
         <v>87</v>
@@ -16155,17 +16377,17 @@
       <c r="E224" s="41" t="s">
         <v>378</v>
       </c>
-      <c r="F224" s="62">
-        <v>45677.479206435186</v>
-      </c>
-      <c r="G224" s="63">
-        <v>45677.479206435186</v>
-      </c>
-      <c r="H224" s="63" t="s">
-        <v>738</v>
+      <c r="F224" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G224" s="31" t="s">
+        <v>815</v>
+      </c>
+      <c r="H224" s="31" t="s">
+        <v>814</v>
       </c>
       <c r="I224" s="31" t="s">
-        <v>739</v>
+        <v>813</v>
       </c>
       <c r="J224" s="33" t="s">
         <v>87</v>
@@ -16202,17 +16424,17 @@
       <c r="E225" s="48" t="s">
         <v>379</v>
       </c>
-      <c r="F225" s="62">
-        <v>45677.479213148152</v>
-      </c>
-      <c r="G225" s="63">
-        <v>45677.479213148152</v>
-      </c>
-      <c r="H225" s="63" t="s">
-        <v>740</v>
+      <c r="F225" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G225" s="31" t="s">
+        <v>812</v>
+      </c>
+      <c r="H225" s="31" t="s">
+        <v>811</v>
       </c>
       <c r="I225" s="31" t="s">
-        <v>741</v>
+        <v>810</v>
       </c>
       <c r="J225" s="33" t="s">
         <v>87</v>
@@ -23027,15 +23249,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -23293,6 +23506,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -23306,14 +23528,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5C8A108-5C92-4947-B020-8B796E060B59}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -23328,6 +23542,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/A1#111#HLTMANAGEMENTSRLXX/HLT Management/HLT Central/4.2/report-checklist.xlsx
+++ b/GATEWAY/A1#111#HLTMANAGEMENTSRLXX/HLT Management/HLT Central/4.2/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tecnoter\TFS_Cloud\PE\AccreditamentoFSE2.0\Resource\HLT\Accreditamento_2024\GITHUB_24012025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tecnoter\TFS_Cloud\PE\AccreditamentoFSE2.0\Resource\HLT\Accreditamento_2024\GITHUB_30012025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF307E5-751E-4313-A69C-F024B992C09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8639977F-BA94-4A62-BD76-CF86C3EF1B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-14493" windowWidth="25786" windowHeight="13866" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="821">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1972,922 +1972,937 @@
     <t>Non rientra tra i documenti gestiti dall'applicativo</t>
   </si>
   <si>
-    <t>24/01/2025</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:56:31Z</t>
-  </si>
-  <si>
-    <t>ed336878c4fcda27</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.e9e9866d96^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>fc0ce2ec9c7bb6ed</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.31e7cd744b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:56:32Z</t>
-  </si>
-  <si>
-    <t>904572ed1fc061f9</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.343dacee11^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>84c1fccb607339de</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.03a35beae6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:56:33Z</t>
-  </si>
-  <si>
-    <t>54f48cc4bb64df4c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.cfec1913ee^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:56:34Z</t>
-  </si>
-  <si>
-    <t>88aed64fb812ca4c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.46066c5437^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>bdc4efe44a7995b7</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.7ece61c5c8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:56:35Z</t>
-  </si>
-  <si>
-    <t>00b348beedf17cf6</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.ee24dfe86d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:56:36Z</t>
-  </si>
-  <si>
-    <t>51ae7460bf5d83c9</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.2aff4736fc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>15166935202682e3</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.ca9c8e33ed^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:56:37Z</t>
-  </si>
-  <si>
-    <t>fbaccd25b54f1ba1</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.777a15c3c4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:56:38Z</t>
-  </si>
-  <si>
-    <t>64b1d5e7c70753bb</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.5a676acd9b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>98002f19a713bd40</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.5ba4b229fa^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:56:39Z</t>
-  </si>
-  <si>
-    <t>1fe1ed882c9ca142</t>
-  </si>
-  <si>
-    <t>cbfa9a5cf25fb2ab</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:56:40Z</t>
-  </si>
-  <si>
-    <t>5cda9b4fe23e8647</t>
-  </si>
-  <si>
-    <t>4b4add22b55bb63a</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:56:41Z</t>
-  </si>
-  <si>
-    <t>18c2e49c920a856d</t>
-  </si>
-  <si>
-    <t>ba4e50e5d12c56ee</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:56:42Z</t>
-  </si>
-  <si>
-    <t>6a559891963136e0</t>
-  </si>
-  <si>
-    <t>04c2ca50db988bfa</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:56:43Z</t>
-  </si>
-  <si>
-    <t>6f32f62be49ce13f</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:56:44Z</t>
-  </si>
-  <si>
-    <t>a08116445e3b5b9f</t>
-  </si>
-  <si>
-    <t>5f32464dcd03e2db</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.3f694fe322^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:56:45Z</t>
-  </si>
-  <si>
-    <t>b7e2d8a04d2b2f77</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.d24e714b06^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:56:46Z</t>
-  </si>
-  <si>
-    <t>993a3a23fa446bcd</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.6c46c77e94^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>d85dcaddb7e66f43</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.a58f8ca2d0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:56:47Z</t>
-  </si>
-  <si>
-    <t>1223dd57417e51bd</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.f4dc06f6eb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>603607a96f91a357</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.6fd4e541b8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:56:48Z</t>
-  </si>
-  <si>
-    <t>a9d2bd1dc8f6e3ac</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.e8a3a73bca^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:56:49Z</t>
-  </si>
-  <si>
-    <t>5eb1c80bf5ee30dd</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.05e447219f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>1b87d4d03e8a0ea8</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.0a56776e7c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:56:50Z</t>
-  </si>
-  <si>
-    <t>cdee78956e671487</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.abe6a35b3b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:56:51Z</t>
-  </si>
-  <si>
-    <t>7b11d77d65bb512a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.0a8e0a3dea^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>efdb27e21d9bd73c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.4693ab28b1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:56:52Z</t>
-  </si>
-  <si>
-    <t>dc5fabd87d2a3983</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.52146eee7f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>9aaefadfee02164d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.f993115a28^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:56:53Z</t>
-  </si>
-  <si>
-    <t>31c3e1dee9e7944d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.58d1b3076f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>89924225ecd54a65</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.00c8fdb3c6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:56:54Z</t>
-  </si>
-  <si>
-    <t>e464ca7159554b9e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.04947201c5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:56:55Z</t>
-  </si>
-  <si>
-    <t>dfde48c3e69594f5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.e048dcff45^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>10b80742539f2703</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.b792c97a9f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:56:56Z</t>
-  </si>
-  <si>
-    <t>7a9ff06961970a17</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.644628acc6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:56:57Z</t>
-  </si>
-  <si>
-    <t>c89222ba08064d8f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.ce4f1548e1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>3758bfe8cc7512ad</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.ec9b02bd56^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:56:58Z</t>
-  </si>
-  <si>
-    <t>63cfdcf3aaf1f227</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.802e5a974f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:56:59Z</t>
-  </si>
-  <si>
-    <t>4640dabb74012230</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.ddfe18ae5c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:57:00Z</t>
-  </si>
-  <si>
-    <t>7de0fa8ca007cd79</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.d825934263^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>d94c21e15665dfe9</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.6c1e936aff^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:57:01Z</t>
-  </si>
-  <si>
-    <t>cc2274e13bd64e6e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.da0eac4b90^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>152b6ca2264a1891</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.ae96d8be87^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:57:02Z</t>
-  </si>
-  <si>
-    <t>9bbdbd15b01e6d6c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.ee9a1b3104^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:57:03Z</t>
-  </si>
-  <si>
-    <t>c3068fd4244c424f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.9320be93f3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>11331aba610cc6d1</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.bf38e2538a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:57:04Z</t>
-  </si>
-  <si>
-    <t>290104a5b79e9db1</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.df9595d22f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>63ad6fe5e99f14e3</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.3cfb2f7794^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:57:05Z</t>
-  </si>
-  <si>
-    <t>b64a1d6584425834</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.fe4194189b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:57:06Z</t>
-  </si>
-  <si>
-    <t>abc95787adc3e849</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.e5a84d2052^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>6e7e759aabbac9b0</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.4bf4de9ec9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:57:07Z</t>
-  </si>
-  <si>
-    <t>d92742b38d6b8f3c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.1fc29fe7ab^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>e3bbae77f445f8c6</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.7ccf625a8c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:57:08Z</t>
-  </si>
-  <si>
-    <t>8509f4c1a79538a8</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.45b7f40c67^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:57:09Z</t>
-  </si>
-  <si>
-    <t>1904892c87a2e442</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.12627e983d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>6a7af25bc96ce4da</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.a0e3b75b13^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:57:12Z</t>
-  </si>
-  <si>
-    <t>f53b02aa9bf42e1d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.ba8cedbf89^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>fd704f9de05c2cc4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.34607d5699^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:57:13Z</t>
-  </si>
-  <si>
-    <t>0e88a65b80370231</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.ea8a7abd91^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>78d1b32c2eedcd33</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.66474d7773^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:57:14Z</t>
-  </si>
-  <si>
-    <t>3403dfc76ef9213e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.99a0350f30^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:57:15Z</t>
-  </si>
-  <si>
-    <t>bd32b9530fa8d545</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.c86717fd6e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>6122908da99d2fc7</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.d37371909e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:57:16Z</t>
-  </si>
-  <si>
-    <t>0c6b2376e0349fb9</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.9f8dd73670^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>6a4f975f7a727f41</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.98b4bb9e23^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:57:17Z</t>
-  </si>
-  <si>
-    <t>828e6c908c2b1dfb</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.fe3ea2f74f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>6627c7f3ccde366e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.35ad2dc0ab^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:57:18Z</t>
-  </si>
-  <si>
-    <t>a936cdaad43f7679</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.76ea655ff6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:57:19Z</t>
-  </si>
-  <si>
-    <t>a4f21e1678453105</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.b9a2381320^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>1bbcc597ea196311</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.59017e6145^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:57:20Z</t>
-  </si>
-  <si>
-    <t>dcb8cd28d6d2bae5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.69fb3ebbe7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:57:21Z</t>
-  </si>
-  <si>
-    <t>b62f851f8ee6b7b6</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.70f04bb0c1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>d0731538026a7a0c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.476afddc9a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:57:22Z</t>
-  </si>
-  <si>
-    <t>98af1d1027c39378</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.7479ee4d5b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>30db866e940e7955</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.8059a3ec7a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:57:23Z</t>
-  </si>
-  <si>
-    <t>33147ba1bd84ef21</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.5ee7471215^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:57:24Z</t>
-  </si>
-  <si>
-    <t>d558a92fa3209bd5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.74c6d6ab50^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:57:25Z</t>
-  </si>
-  <si>
-    <t>fde537c3a7cdc4fa</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.c3c5081a95^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>a7b4e0a3e598a488</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.18ef258e33^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:57:26Z</t>
-  </si>
-  <si>
-    <t>805c2a966c6a1bfb</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.3dee44825c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:57:27Z</t>
-  </si>
-  <si>
-    <t>02ef5398548e101e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.439b4db7cb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>d92484eac4e98e8e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.054f855a82^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:57:28Z</t>
-  </si>
-  <si>
-    <t>e3764d27a47dae96</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.c22958d26b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>c1ccff5cca2ac745</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.641989cfce^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:57:29Z</t>
-  </si>
-  <si>
-    <t>b04cc755f369e23b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.5a9f7b25b9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>e3420c8eba10f9b4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.db3a960807^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:57:30Z</t>
-  </si>
-  <si>
-    <t>e059c9313eb00424</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.06eec27b2a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>4904e1f2a6778291</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.46e99bcc30^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:57:31Z</t>
-  </si>
-  <si>
-    <t>09a247a45cff8de9</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.41275f3a29^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>c50e5e266692efc0</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.5ae0249fb1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:57:32Z</t>
-  </si>
-  <si>
-    <t>f8dd01e5c5248f81</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.2df6c250ea^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:57:33Z</t>
-  </si>
-  <si>
-    <t>e820bf481b5831f5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.eda4e71e94^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>6b0db369c2ea7e0b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.a09e992bba^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:57:34Z</t>
-  </si>
-  <si>
-    <t>946c68a8c3f848f5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.859a8f66db^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>16e2b1646e8bae25</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.83023c2a75^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:57:35Z</t>
-  </si>
-  <si>
-    <t>808788687b8d377a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.f36db72bc1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>186a8767ca8c5b0d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.83ba97f9e5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:57:36Z</t>
-  </si>
-  <si>
-    <t>c68b2d8ce3ff2091</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.69d40be90d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:57:37Z</t>
-  </si>
-  <si>
-    <t>5939b8e131777150</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.a17cf7cef5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>d35c85ac9ee3e5b5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.d3ab494c8d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:57:38Z</t>
-  </si>
-  <si>
-    <t>70a3fe023e706214</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.c41de6137d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>93d357add0f7507f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.cf0e2c667d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:57:39Z</t>
-  </si>
-  <si>
-    <t>900693c37d9daa69</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.a42cdffde6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>5b2a7e3478b86407</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.793ec87052^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:57:40Z</t>
-  </si>
-  <si>
-    <t>c4dc28f3562d2e82</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.fe26e2b6d0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>94074f805690906e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.aca16b2b5a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:57:41Z</t>
-  </si>
-  <si>
-    <t>5f923f421f6c4880</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.6ae3593cdf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:57:42Z</t>
-  </si>
-  <si>
-    <t>6e33414be0381a02</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.7349703bc1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>0368cb902601acce</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.b57339ebd2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:57:43Z</t>
-  </si>
-  <si>
-    <t>490966553d7135c5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.06d95127be^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>8f8aecaf342be0e5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.2ef26b8ce2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.1eba0b4ca2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>625693983e808b9e</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:57:45Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.9ecddef8db^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>67133fe92a5a95ba</t>
-  </si>
-  <si>
-    <t>2025-01-24T16:57:44Z</t>
+    <t>30/01/2025</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:20:44Z</t>
+  </si>
+  <si>
+    <t>3eb4307e2458f873</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.0f1a909602^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:20:45Z</t>
+  </si>
+  <si>
+    <t>5e2d41fc22ff283a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.1ee6d37a63^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>b65590ebba8149a0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.e5b0c5d9d3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:20:46Z</t>
+  </si>
+  <si>
+    <t>8163f8a5c3989ba9</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.93ad2385a2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:20:47Z</t>
+  </si>
+  <si>
+    <t>ae96ce3bdff57a44</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.dd5f70a3c9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:20:48Z</t>
+  </si>
+  <si>
+    <t>9c64c91f2630d1a2</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.3d63858bef^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>eff658fabdbf1871</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.e821ceabdc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:20:49Z</t>
+  </si>
+  <si>
+    <t>a67d3453129ee377</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.8a5bd927f8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:20:50Z</t>
+  </si>
+  <si>
+    <t>43a9ac18326015cb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.299ff41581^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>3fd3071a40afb0f1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.163d1cb4c4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:20:51Z</t>
+  </si>
+  <si>
+    <t>4cfbbd2a116600f8</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.e827683813^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:20:52Z</t>
+  </si>
+  <si>
+    <t>eb5eb653d4623b9d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.5dd95bea26^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>6249076fc199fb82</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.e1ef6f2484^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:20:53Z</t>
+  </si>
+  <si>
+    <t>cfe9b755f8bd5b72</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:20:54Z</t>
+  </si>
+  <si>
+    <t>dee227b4382e0641</t>
+  </si>
+  <si>
+    <t>0199419d03852761</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:20:55Z</t>
+  </si>
+  <si>
+    <t>f68de63b4fd033c1</t>
+  </si>
+  <si>
+    <t>23ef465edecd0431</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:20:56Z</t>
+  </si>
+  <si>
+    <t>d814e882b94d9426</t>
+  </si>
+  <si>
+    <t>250f476c06d02a0f</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:20:57Z</t>
+  </si>
+  <si>
+    <t>c922ea5a6a4f65b9</t>
+  </si>
+  <si>
+    <t>ffe3926a9f87923a</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:20:58Z</t>
+  </si>
+  <si>
+    <t>a110df049324e543</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:20:59Z</t>
+  </si>
+  <si>
+    <t>5b9a3e0bdfc6ff98</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.7c63ce63c1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>a776bfbe16c61537</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.4ab26db7bf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:00Z</t>
+  </si>
+  <si>
+    <t>1776e7b809f3b30a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.102daaa35e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>06095a05ae89d92a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.1155caed5d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:01Z</t>
+  </si>
+  <si>
+    <t>ed95e83e8bf5f71c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.1e5f4b85cf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:02Z</t>
+  </si>
+  <si>
+    <t>c0db4e0c7fbc55a4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.344aa9165a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:03Z</t>
+  </si>
+  <si>
+    <t>6f4ab9636e1a65bc</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.6d136fccef^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>39b180e865d23a05</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.75cdca14f3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:04Z</t>
+  </si>
+  <si>
+    <t>fc7e5c79727af133</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.c1bf9b971d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>a834fc3bd785f8c5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.e8278f1169^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:05Z</t>
+  </si>
+  <si>
+    <t>e176f10f8ba61277</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.7e537e0430^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2511ed4819b7ca0f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.d6c921d64c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:06Z</t>
+  </si>
+  <si>
+    <t>966ad11ac156641a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.92567bb8f6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:07Z</t>
+  </si>
+  <si>
+    <t>c47497d5d1ab8de3</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.6bca2271ba^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>7bc4ebe0e7748fa5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.4314d8cba9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:08Z</t>
+  </si>
+  <si>
+    <t>98a8c0f04863c71f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.81d17bc005^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>6a55b7a93848f9b3</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.aae100c2fd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:09Z</t>
+  </si>
+  <si>
+    <t>524d83ef53a783f2</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.9623c0c92b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:10Z</t>
+  </si>
+  <si>
+    <t>2285cf0830e01e3a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.a5bfab5f5e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>cc582f5d33dec802</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.7bb7c7cdc5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:11Z</t>
+  </si>
+  <si>
+    <t>26ddd281301cfcd9</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.48abd61cc3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:12Z</t>
+  </si>
+  <si>
+    <t>1bc24d4860a58760</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.d51bbed5b5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:13Z</t>
+  </si>
+  <si>
+    <t>873779a7d36f8c3f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.22f6037de8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>346068bfeb482282</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.41d3a5ab2f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:14Z</t>
+  </si>
+  <si>
+    <t>abd617990ecba3b0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.3735173e86^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>c93da826fdfce91a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.50562cd7e2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:15Z</t>
+  </si>
+  <si>
+    <t>3debae22f2608a38</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.4ab0f83ded^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:16Z</t>
+  </si>
+  <si>
+    <t>33996539c10b141f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.d03be600e8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2cd22edd7cc06f52</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.e47ad062b1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:17Z</t>
+  </si>
+  <si>
+    <t>a7085880048ade5a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.d8b9e4e0e9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:18Z</t>
+  </si>
+  <si>
+    <t>91cf00c68ffdf67e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.e74ad78624^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>dedd318250c1b12a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.8525e632cd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:19Z</t>
+  </si>
+  <si>
+    <t>fdef21ad76745a0f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.6195f958bd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:20Z</t>
+  </si>
+  <si>
+    <t>8fe5ffeedbc18cfd</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.df729f5735^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>a43f8be179f591bd</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.d27e1288b7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:21Z</t>
+  </si>
+  <si>
+    <t>d6a0c9dd186cb568</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.fcdc1dda17^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:22Z</t>
+  </si>
+  <si>
+    <t>140100291aba931c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.9a6deecc69^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>7944af61ff3dab45</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.cbd5f398ba^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:23Z</t>
+  </si>
+  <si>
+    <t>46a55a921ab8d32c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.fa2f53c787^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:24Z</t>
+  </si>
+  <si>
+    <t>545416ea84ac520b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.af8956bf29^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:25Z</t>
+  </si>
+  <si>
+    <t>f42577de8832111b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.ea807b8430^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>cab57f77b6f68d9b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.fc0bf43360^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:26Z</t>
+  </si>
+  <si>
+    <t>7af4477b55c13ce9</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.3acaf7437e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:27Z</t>
+  </si>
+  <si>
+    <t>09b23d1bf4c22294</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.9805aa3b29^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>614af6f1c0a696e2</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.23978a5b4d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:28Z</t>
+  </si>
+  <si>
+    <t>8d5ac380b3ed6c5a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.bee7711c1e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:29Z</t>
+  </si>
+  <si>
+    <t>77fcaa33f5b8e32e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.119a00d9e3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>0e150924c65ba2d8</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.b223e4fb99^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:30Z</t>
+  </si>
+  <si>
+    <t>8ac7907639db0fd4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.474816869b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>c3e68e3ee78c95c1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.cfcb06541f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:31Z</t>
+  </si>
+  <si>
+    <t>36ca9157ff7cd8b7</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.041d2e2d0d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>5fca9eda33b20ca1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.ff87f8f4a8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:32Z</t>
+  </si>
+  <si>
+    <t>5217d8129d551926</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.e68affb536^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>5095027dc56c18b8</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.ee65bfafbe^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:33Z</t>
+  </si>
+  <si>
+    <t>66c4b464dd6101bb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.ab7fd759c2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:34Z</t>
+  </si>
+  <si>
+    <t>9c7fa9d15f4e57a6</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.acea605a8a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:35Z</t>
+  </si>
+  <si>
+    <t>b8a7cc4960856c54</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.ad3f866611^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:36Z</t>
+  </si>
+  <si>
+    <t>81c773742f7c480b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.f278b7cfba^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>ebb5b4e3765e42c0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.e80e786784^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:37Z</t>
+  </si>
+  <si>
+    <t>500a60b81af8be08</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.07d4801c9a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>627de82cde9a613e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.81cfc36804^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:38Z</t>
+  </si>
+  <si>
+    <t>9c82f8b001719cd5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.0df4c02299^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:39Z</t>
+  </si>
+  <si>
+    <t>dd109c2e4dee1313</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.68b72fe5be^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>b1f1f29280d9edfc</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.4735a8d91f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:40Z</t>
+  </si>
+  <si>
+    <t>2edd1b22ca4abd98</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.f87e8a9122^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:41Z</t>
+  </si>
+  <si>
+    <t>ed014da8a082e80e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.0d9250e153^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>653e6fb2decfbde8</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.ca1cc964e3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:42Z</t>
+  </si>
+  <si>
+    <t>82aff8aeb6cb81b0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.bcc58fd6da^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:43Z</t>
+  </si>
+  <si>
+    <t>56499f8202162910</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.1a291e585d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>a652440d9e3138a1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.60fb418475^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:44Z</t>
+  </si>
+  <si>
+    <t>49875cd2392077a4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.a4770a2a65^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:45Z</t>
+  </si>
+  <si>
+    <t>3c1a7a6b5222efb5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.d8d23095e6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>07597cfe854bba8e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.cb32866d1c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:46Z</t>
+  </si>
+  <si>
+    <t>b41cc392275f81db</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.f30db2cca5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>1662bbb06936e072</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.1c977c0eaf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:47Z</t>
+  </si>
+  <si>
+    <t>b5c7e676f75954f2</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.b5ae7ed39a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:48Z</t>
+  </si>
+  <si>
+    <t>8fd4c598a6edcf5c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.d8a40ee827^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>7df9f615bffec13f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.33b4665188^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:49Z</t>
+  </si>
+  <si>
+    <t>694429c8668133dd</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.a9f06e914a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:50Z</t>
+  </si>
+  <si>
+    <t>ab96a29198f9cac2</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.8fb8bbffe1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>f8ff940136eebe38</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.34b89dac7f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:51Z</t>
+  </si>
+  <si>
+    <t>6547d7bdeeb9495f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.1742a30a42^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:52Z</t>
+  </si>
+  <si>
+    <t>cd09c461eadf788b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.1da49e4e69^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>f2eec3f4acb8798b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.f50811fb91^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:53Z</t>
+  </si>
+  <si>
+    <t>8aa3a12cd04d58ab</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.f247dc75e5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>89ec932ceee6d64d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.1b4ab8549b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:54Z</t>
+  </si>
+  <si>
+    <t>3c2d08420c797a8b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.3d81d8579e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>920abb097514d7e3</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.bc15a02e3e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:55Z</t>
+  </si>
+  <si>
+    <t>2286249e5477b38c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.871162a3c9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:56Z</t>
+  </si>
+  <si>
+    <t>3b127240c45396a8</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.7223d64451^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>b44d376da84c4adc</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.6762381a46^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:57Z</t>
+  </si>
+  <si>
+    <t>eda8b01d9976a44a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.3aa0fa5af2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:58Z</t>
+  </si>
+  <si>
+    <t>a16701cfa67e5dcb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.3c9593e4c2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>f5ceafc9de96ccbf</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.6e060de1df^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:21:59Z</t>
+  </si>
+  <si>
+    <t>fe62943c62d6edc0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.1bd1f12cb5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>4fdee351c98c7dbb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.11729d1f04^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:22:00Z</t>
+  </si>
+  <si>
+    <t>f4c173a8efb04e7c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.ce1f517f19^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-01-30T08:22:01Z</t>
+  </si>
+  <si>
+    <t>d63889ae6f71b35a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1ce4de178c446b6eb1159788ddd0f41518e1700c4c2b72570b9fb1a5e9a06d82.0e12f5d0f3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -5257,10 +5272,10 @@
   <dimension ref="A1:W809"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" sqref="A1:F1048576"/>
+      <selection pane="bottomRight" activeCell="F190" sqref="F190:I225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -5612,13 +5627,13 @@
         <v>510</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="J11" s="33" t="s">
         <v>87</v>
@@ -5659,7 +5674,7 @@
         <v>510</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H12" s="31" t="s">
         <v>517</v>
@@ -5706,13 +5721,13 @@
         <v>510</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="J13" s="33" t="s">
         <v>87</v>
@@ -5753,13 +5768,13 @@
         <v>510</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="J14" s="33" t="s">
         <v>87</v>
@@ -5800,13 +5815,13 @@
         <v>510</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="J15" s="33" t="s">
         <v>87</v>
@@ -5847,13 +5862,13 @@
         <v>510</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="J16" s="33" t="s">
         <v>87</v>
@@ -5894,13 +5909,13 @@
         <v>510</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="J17" s="33" t="s">
         <v>87</v>
@@ -5941,13 +5956,13 @@
         <v>510</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="J18" s="33" t="s">
         <v>87</v>
@@ -6284,13 +6299,13 @@
         <v>510</v>
       </c>
       <c r="G27" s="31" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="J27" s="33" t="s">
         <v>87</v>
@@ -6331,13 +6346,13 @@
         <v>510</v>
       </c>
       <c r="G28" s="31" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H28" s="31" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="I28" s="31" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="J28" s="33" t="s">
         <v>87</v>
@@ -6378,13 +6393,13 @@
         <v>510</v>
       </c>
       <c r="G29" s="31" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H29" s="31" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="J29" s="33" t="s">
         <v>87</v>
@@ -6425,13 +6440,13 @@
         <v>510</v>
       </c>
       <c r="G30" s="31" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H30" s="31" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="I30" s="31" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="J30" s="33" t="s">
         <v>87</v>
@@ -6472,10 +6487,10 @@
         <v>510</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H31" s="31" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="I31" s="31" t="s">
         <v>505</v>
@@ -6531,10 +6546,10 @@
         <v>510</v>
       </c>
       <c r="G32" s="31" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="H32" s="31" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="I32" s="31" t="s">
         <v>505</v>
@@ -6636,7 +6651,7 @@
         <v>548</v>
       </c>
       <c r="H34" s="31" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="I34" s="31" t="s">
         <v>505</v>
@@ -6692,10 +6707,10 @@
         <v>510</v>
       </c>
       <c r="G35" s="31" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="H35" s="31" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="I35" s="31" t="s">
         <v>505</v>
@@ -6840,7 +6855,7 @@
         <v>551</v>
       </c>
       <c r="H38" s="31" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I38" s="31" t="s">
         <v>505</v>
@@ -6896,10 +6911,10 @@
         <v>510</v>
       </c>
       <c r="G39" s="31" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="H39" s="31" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I39" s="31" t="s">
         <v>505</v>
@@ -6958,7 +6973,7 @@
         <v>554</v>
       </c>
       <c r="H40" s="31" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I40" s="31" t="s">
         <v>505</v>
@@ -7010,8 +7025,8 @@
       <c r="E41" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="F41" s="32"/>
-      <c r="G41" s="63"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
       <c r="H41" s="31"/>
       <c r="I41" s="31"/>
       <c r="J41" s="33" t="s">
@@ -7057,10 +7072,10 @@
         <v>510</v>
       </c>
       <c r="G42" s="31" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="H42" s="31" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="I42" s="31" t="s">
         <v>505</v>
@@ -7119,7 +7134,7 @@
         <v>557</v>
       </c>
       <c r="H43" s="31" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="I43" s="31" t="s">
         <v>505</v>
@@ -7261,10 +7276,10 @@
         <v>510</v>
       </c>
       <c r="G46" s="31" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H46" s="31" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="I46" s="31" t="s">
         <v>505</v>
@@ -7740,13 +7755,13 @@
         <v>510</v>
       </c>
       <c r="G55" s="31" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="H55" s="31" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="I55" s="31" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="J55" s="33" t="s">
         <v>87</v>
@@ -7799,13 +7814,13 @@
         <v>510</v>
       </c>
       <c r="G56" s="31" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H56" s="31" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="I56" s="31" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="J56" s="33" t="s">
         <v>87</v>
@@ -7858,13 +7873,13 @@
         <v>510</v>
       </c>
       <c r="G57" s="31" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H57" s="31" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="I57" s="31" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="J57" s="33" t="s">
         <v>87</v>
@@ -7917,13 +7932,13 @@
         <v>510</v>
       </c>
       <c r="G58" s="31" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H58" s="31" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="I58" s="31" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="J58" s="33" t="s">
         <v>87</v>
@@ -7976,13 +7991,13 @@
         <v>510</v>
       </c>
       <c r="G59" s="31" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H59" s="31" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="I59" s="31" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="J59" s="33" t="s">
         <v>87</v>
@@ -8035,13 +8050,13 @@
         <v>510</v>
       </c>
       <c r="G60" s="31" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="H60" s="31" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="I60" s="31" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="J60" s="33" t="s">
         <v>87</v>
@@ -8094,13 +8109,13 @@
         <v>510</v>
       </c>
       <c r="G61" s="31" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="H61" s="31" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="I61" s="31" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="J61" s="33" t="s">
         <v>87</v>
@@ -8153,13 +8168,13 @@
         <v>510</v>
       </c>
       <c r="G62" s="31" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H62" s="31" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="I62" s="31" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="J62" s="33" t="s">
         <v>87</v>
@@ -8212,13 +8227,13 @@
         <v>510</v>
       </c>
       <c r="G63" s="31" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="H63" s="31" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="I63" s="31" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="J63" s="33" t="s">
         <v>87</v>
@@ -8271,13 +8286,13 @@
         <v>510</v>
       </c>
       <c r="G64" s="31" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H64" s="31" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="I64" s="31" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="J64" s="33" t="s">
         <v>87</v>
@@ -8330,13 +8345,13 @@
         <v>510</v>
       </c>
       <c r="G65" s="31" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H65" s="31" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="I65" s="31" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="J65" s="33" t="s">
         <v>87</v>
@@ -8389,13 +8404,13 @@
         <v>510</v>
       </c>
       <c r="G66" s="31" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H66" s="31" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="I66" s="31" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="J66" s="33" t="s">
         <v>87</v>
@@ -8448,13 +8463,13 @@
         <v>510</v>
       </c>
       <c r="G67" s="31" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H67" s="31" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="I67" s="31" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="J67" s="33" t="s">
         <v>87</v>
@@ -8507,13 +8522,13 @@
         <v>510</v>
       </c>
       <c r="G68" s="31" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="H68" s="31" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="I68" s="31" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="J68" s="33" t="s">
         <v>87</v>
@@ -8566,13 +8581,13 @@
         <v>510</v>
       </c>
       <c r="G69" s="31" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H69" s="31" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="I69" s="31" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="J69" s="33" t="s">
         <v>87</v>
@@ -8625,13 +8640,13 @@
         <v>510</v>
       </c>
       <c r="G70" s="31" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="H70" s="31" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="I70" s="31" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="J70" s="33" t="s">
         <v>87</v>
@@ -8684,13 +8699,13 @@
         <v>510</v>
       </c>
       <c r="G71" s="31" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H71" s="31" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I71" s="31" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="J71" s="33" t="s">
         <v>87</v>
@@ -8743,13 +8758,13 @@
         <v>510</v>
       </c>
       <c r="G72" s="31" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H72" s="31" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="I72" s="31" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="J72" s="33" t="s">
         <v>87</v>
@@ -8802,13 +8817,13 @@
         <v>510</v>
       </c>
       <c r="G73" s="31" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="H73" s="31" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="I73" s="31" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="J73" s="33" t="s">
         <v>87</v>
@@ -8861,13 +8876,13 @@
         <v>510</v>
       </c>
       <c r="G74" s="31" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H74" s="31" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="I74" s="31" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="J74" s="33" t="s">
         <v>87</v>
@@ -8920,13 +8935,13 @@
         <v>510</v>
       </c>
       <c r="G75" s="31" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H75" s="31" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="I75" s="31" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="J75" s="33" t="s">
         <v>87</v>
@@ -8979,13 +8994,13 @@
         <v>510</v>
       </c>
       <c r="G76" s="31" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="H76" s="31" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="I76" s="31" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="J76" s="33" t="s">
         <v>87</v>
@@ -9038,13 +9053,13 @@
         <v>510</v>
       </c>
       <c r="G77" s="31" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="H77" s="31" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="I77" s="31" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="J77" s="33" t="s">
         <v>87</v>
@@ -9097,13 +9112,13 @@
         <v>510</v>
       </c>
       <c r="G78" s="31" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H78" s="31" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="I78" s="31" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="J78" s="33" t="s">
         <v>87</v>
@@ -9156,13 +9171,13 @@
         <v>510</v>
       </c>
       <c r="G79" s="31" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H79" s="31" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="I79" s="31" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="J79" s="33" t="s">
         <v>87</v>
@@ -9215,13 +9230,13 @@
         <v>510</v>
       </c>
       <c r="G80" s="31" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H80" s="31" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="I80" s="31" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="J80" s="33" t="s">
         <v>87</v>
@@ -9274,13 +9289,13 @@
         <v>510</v>
       </c>
       <c r="G81" s="31" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H81" s="31" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="I81" s="31" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="J81" s="33" t="s">
         <v>87</v>
@@ -9333,13 +9348,13 @@
         <v>510</v>
       </c>
       <c r="G82" s="31" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="H82" s="31" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="I82" s="31" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="J82" s="33" t="s">
         <v>87</v>
@@ -9392,13 +9407,13 @@
         <v>510</v>
       </c>
       <c r="G83" s="31" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H83" s="31" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="I83" s="31" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="J83" s="33" t="s">
         <v>87</v>
@@ -9451,13 +9466,13 @@
         <v>510</v>
       </c>
       <c r="G84" s="31" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H84" s="31" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="I84" s="31" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="J84" s="33" t="s">
         <v>87</v>
@@ -9510,13 +9525,13 @@
         <v>510</v>
       </c>
       <c r="G85" s="31" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="H85" s="31" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="I85" s="31" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="J85" s="33" t="s">
         <v>87</v>
@@ -9569,13 +9584,13 @@
         <v>510</v>
       </c>
       <c r="G86" s="31" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H86" s="31" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="I86" s="31" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="J86" s="33" t="s">
         <v>87</v>
@@ -9628,13 +9643,13 @@
         <v>510</v>
       </c>
       <c r="G87" s="31" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="H87" s="31" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="I87" s="31" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="J87" s="33" t="s">
         <v>87</v>
@@ -9687,13 +9702,13 @@
         <v>510</v>
       </c>
       <c r="G88" s="31" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="H88" s="31" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="I88" s="31" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="J88" s="33" t="s">
         <v>87</v>
@@ -9746,13 +9761,13 @@
         <v>510</v>
       </c>
       <c r="G89" s="31" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H89" s="31" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="I89" s="31" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J89" s="33" t="s">
         <v>87</v>
@@ -9805,13 +9820,13 @@
         <v>510</v>
       </c>
       <c r="G90" s="31" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="H90" s="31" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I90" s="31" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J90" s="33" t="s">
         <v>87</v>
@@ -9864,13 +9879,13 @@
         <v>510</v>
       </c>
       <c r="G91" s="31" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="H91" s="31" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="I91" s="31" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="J91" s="33" t="s">
         <v>87</v>
@@ -9923,13 +9938,13 @@
         <v>510</v>
       </c>
       <c r="G92" s="31" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="H92" s="31" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="I92" s="31" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="J92" s="33" t="s">
         <v>87</v>
@@ -9982,13 +9997,13 @@
         <v>510</v>
       </c>
       <c r="G93" s="31" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="H93" s="31" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="I93" s="31" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="J93" s="33" t="s">
         <v>87</v>
@@ -10041,13 +10056,13 @@
         <v>510</v>
       </c>
       <c r="G94" s="31" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="H94" s="31" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="I94" s="31" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="J94" s="33" t="s">
         <v>87</v>
@@ -10100,13 +10115,13 @@
         <v>510</v>
       </c>
       <c r="G95" s="31" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="H95" s="31" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="I95" s="31" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="J95" s="33" t="s">
         <v>87</v>
@@ -10162,10 +10177,10 @@
         <v>668</v>
       </c>
       <c r="H96" s="31" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="I96" s="31" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="J96" s="33" t="s">
         <v>87</v>
@@ -11418,17 +11433,17 @@
       <c r="E125" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="F125" s="31" t="s">
+      <c r="F125" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G125" s="31" t="s">
-        <v>668</v>
-      </c>
-      <c r="H125" s="31" t="s">
-        <v>671</v>
-      </c>
-      <c r="I125" s="31" t="s">
-        <v>672</v>
+      <c r="G125" s="32" t="s">
+        <v>673</v>
+      </c>
+      <c r="H125" s="32" t="s">
+        <v>674</v>
+      </c>
+      <c r="I125" s="32" t="s">
+        <v>675</v>
       </c>
       <c r="J125" s="33" t="s">
         <v>87</v>
@@ -11477,17 +11492,17 @@
       <c r="E126" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="F126" s="31" t="s">
+      <c r="F126" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G126" s="31" t="s">
-        <v>673</v>
-      </c>
-      <c r="H126" s="31" t="s">
-        <v>674</v>
-      </c>
-      <c r="I126" s="31" t="s">
-        <v>675</v>
+      <c r="G126" s="32" t="s">
+        <v>676</v>
+      </c>
+      <c r="H126" s="32" t="s">
+        <v>677</v>
+      </c>
+      <c r="I126" s="32" t="s">
+        <v>678</v>
       </c>
       <c r="J126" s="33" t="s">
         <v>87</v>
@@ -11536,17 +11551,17 @@
       <c r="E127" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="F127" s="31" t="s">
+      <c r="F127" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G127" s="31" t="s">
-        <v>673</v>
-      </c>
-      <c r="H127" s="31" t="s">
+      <c r="G127" s="32" t="s">
         <v>676</v>
       </c>
-      <c r="I127" s="31" t="s">
-        <v>677</v>
+      <c r="H127" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="I127" s="32" t="s">
+        <v>680</v>
       </c>
       <c r="J127" s="33" t="s">
         <v>87</v>
@@ -11595,17 +11610,17 @@
       <c r="E128" s="31" t="s">
         <v>464</v>
       </c>
-      <c r="F128" s="31" t="s">
+      <c r="F128" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G128" s="31" t="s">
-        <v>678</v>
-      </c>
-      <c r="H128" s="31" t="s">
-        <v>679</v>
-      </c>
-      <c r="I128" s="31" t="s">
-        <v>680</v>
+      <c r="G128" s="32" t="s">
+        <v>681</v>
+      </c>
+      <c r="H128" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="I128" s="32" t="s">
+        <v>683</v>
       </c>
       <c r="J128" s="33" t="s">
         <v>87</v>
@@ -11654,17 +11669,17 @@
       <c r="E129" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="F129" s="31" t="s">
+      <c r="F129" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G129" s="31" t="s">
-        <v>681</v>
-      </c>
-      <c r="H129" s="31" t="s">
-        <v>682</v>
-      </c>
-      <c r="I129" s="31" t="s">
-        <v>683</v>
+      <c r="G129" s="32" t="s">
+        <v>684</v>
+      </c>
+      <c r="H129" s="32" t="s">
+        <v>685</v>
+      </c>
+      <c r="I129" s="32" t="s">
+        <v>686</v>
       </c>
       <c r="J129" s="33" t="s">
         <v>87</v>
@@ -11713,17 +11728,17 @@
       <c r="E130" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="F130" s="31" t="s">
+      <c r="F130" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G130" s="31" t="s">
-        <v>681</v>
-      </c>
-      <c r="H130" s="31" t="s">
+      <c r="G130" s="32" t="s">
         <v>684</v>
       </c>
-      <c r="I130" s="31" t="s">
-        <v>685</v>
+      <c r="H130" s="32" t="s">
+        <v>687</v>
+      </c>
+      <c r="I130" s="32" t="s">
+        <v>688</v>
       </c>
       <c r="J130" s="33" t="s">
         <v>87</v>
@@ -11772,17 +11787,17 @@
       <c r="E131" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="F131" s="31" t="s">
+      <c r="F131" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G131" s="31" t="s">
-        <v>686</v>
-      </c>
-      <c r="H131" s="31" t="s">
-        <v>687</v>
-      </c>
-      <c r="I131" s="31" t="s">
-        <v>688</v>
+      <c r="G131" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="H131" s="32" t="s">
+        <v>690</v>
+      </c>
+      <c r="I131" s="32" t="s">
+        <v>691</v>
       </c>
       <c r="J131" s="33" t="s">
         <v>87</v>
@@ -11831,17 +11846,17 @@
       <c r="E132" s="31" t="s">
         <v>465</v>
       </c>
-      <c r="F132" s="31" t="s">
+      <c r="F132" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G132" s="31" t="s">
-        <v>686</v>
-      </c>
-      <c r="H132" s="31" t="s">
+      <c r="G132" s="32" t="s">
         <v>689</v>
       </c>
-      <c r="I132" s="31" t="s">
-        <v>690</v>
+      <c r="H132" s="32" t="s">
+        <v>692</v>
+      </c>
+      <c r="I132" s="32" t="s">
+        <v>693</v>
       </c>
       <c r="J132" s="33" t="s">
         <v>87</v>
@@ -11890,17 +11905,17 @@
       <c r="E133" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="F133" s="31" t="s">
+      <c r="F133" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G133" s="31" t="s">
-        <v>691</v>
-      </c>
-      <c r="H133" s="31" t="s">
-        <v>692</v>
-      </c>
-      <c r="I133" s="31" t="s">
-        <v>693</v>
+      <c r="G133" s="32" t="s">
+        <v>694</v>
+      </c>
+      <c r="H133" s="32" t="s">
+        <v>695</v>
+      </c>
+      <c r="I133" s="32" t="s">
+        <v>696</v>
       </c>
       <c r="J133" s="33" t="s">
         <v>87</v>
@@ -11949,17 +11964,17 @@
       <c r="E134" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="F134" s="31" t="s">
+      <c r="F134" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G134" s="31" t="s">
-        <v>691</v>
-      </c>
-      <c r="H134" s="31" t="s">
+      <c r="G134" s="32" t="s">
         <v>694</v>
       </c>
-      <c r="I134" s="31" t="s">
-        <v>695</v>
+      <c r="H134" s="32" t="s">
+        <v>697</v>
+      </c>
+      <c r="I134" s="32" t="s">
+        <v>698</v>
       </c>
       <c r="J134" s="33" t="s">
         <v>87</v>
@@ -12008,17 +12023,17 @@
       <c r="E135" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="F135" s="31" t="s">
+      <c r="F135" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G135" s="31" t="s">
-        <v>696</v>
-      </c>
-      <c r="H135" s="31" t="s">
-        <v>697</v>
-      </c>
-      <c r="I135" s="31" t="s">
-        <v>698</v>
+      <c r="G135" s="32" t="s">
+        <v>699</v>
+      </c>
+      <c r="H135" s="32" t="s">
+        <v>700</v>
+      </c>
+      <c r="I135" s="32" t="s">
+        <v>701</v>
       </c>
       <c r="J135" s="33" t="s">
         <v>87</v>
@@ -12067,17 +12082,17 @@
       <c r="E136" s="31" t="s">
         <v>392</v>
       </c>
-      <c r="F136" s="31" t="s">
+      <c r="F136" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G136" s="31" t="s">
+      <c r="G136" s="32" t="s">
         <v>699</v>
       </c>
-      <c r="H136" s="31" t="s">
-        <v>700</v>
-      </c>
-      <c r="I136" s="31" t="s">
-        <v>701</v>
+      <c r="H136" s="32" t="s">
+        <v>702</v>
+      </c>
+      <c r="I136" s="32" t="s">
+        <v>703</v>
       </c>
       <c r="J136" s="33" t="s">
         <v>87</v>
@@ -12126,17 +12141,17 @@
       <c r="E137" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="F137" s="31" t="s">
+      <c r="F137" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G137" s="31" t="s">
-        <v>699</v>
-      </c>
-      <c r="H137" s="31" t="s">
-        <v>702</v>
-      </c>
-      <c r="I137" s="31" t="s">
-        <v>703</v>
+      <c r="G137" s="32" t="s">
+        <v>704</v>
+      </c>
+      <c r="H137" s="32" t="s">
+        <v>705</v>
+      </c>
+      <c r="I137" s="32" t="s">
+        <v>706</v>
       </c>
       <c r="J137" s="33" t="s">
         <v>87</v>
@@ -12185,17 +12200,17 @@
       <c r="E138" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="F138" s="31" t="s">
+      <c r="F138" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G138" s="31" t="s">
-        <v>704</v>
-      </c>
-      <c r="H138" s="31" t="s">
-        <v>705</v>
-      </c>
-      <c r="I138" s="31" t="s">
-        <v>706</v>
+      <c r="G138" s="32" t="s">
+        <v>707</v>
+      </c>
+      <c r="H138" s="32" t="s">
+        <v>708</v>
+      </c>
+      <c r="I138" s="32" t="s">
+        <v>709</v>
       </c>
       <c r="J138" s="33" t="s">
         <v>87</v>
@@ -12244,17 +12259,17 @@
       <c r="E139" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="F139" s="31" t="s">
+      <c r="F139" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G139" s="31" t="s">
-        <v>707</v>
-      </c>
-      <c r="H139" s="31" t="s">
-        <v>708</v>
-      </c>
-      <c r="I139" s="31" t="s">
-        <v>709</v>
+      <c r="G139" s="32" t="s">
+        <v>710</v>
+      </c>
+      <c r="H139" s="32" t="s">
+        <v>711</v>
+      </c>
+      <c r="I139" s="32" t="s">
+        <v>712</v>
       </c>
       <c r="J139" s="33" t="s">
         <v>87</v>
@@ -12303,17 +12318,17 @@
       <c r="E140" s="31" t="s">
         <v>391</v>
       </c>
-      <c r="F140" s="31" t="s">
+      <c r="F140" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G140" s="31" t="s">
-        <v>707</v>
-      </c>
-      <c r="H140" s="31" t="s">
-        <v>710</v>
-      </c>
-      <c r="I140" s="31" t="s">
-        <v>711</v>
+      <c r="G140" s="32" t="s">
+        <v>713</v>
+      </c>
+      <c r="H140" s="32" t="s">
+        <v>714</v>
+      </c>
+      <c r="I140" s="32" t="s">
+        <v>715</v>
       </c>
       <c r="J140" s="33" t="s">
         <v>87</v>
@@ -12362,17 +12377,17 @@
       <c r="E141" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="F141" s="31" t="s">
+      <c r="F141" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G141" s="31" t="s">
-        <v>712</v>
-      </c>
-      <c r="H141" s="31" t="s">
+      <c r="G141" s="32" t="s">
         <v>713</v>
       </c>
-      <c r="I141" s="31" t="s">
-        <v>714</v>
+      <c r="H141" s="32" t="s">
+        <v>716</v>
+      </c>
+      <c r="I141" s="32" t="s">
+        <v>717</v>
       </c>
       <c r="J141" s="33" t="s">
         <v>87</v>
@@ -12421,17 +12436,17 @@
       <c r="E142" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="F142" s="31" t="s">
+      <c r="F142" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G142" s="31" t="s">
-        <v>712</v>
-      </c>
-      <c r="H142" s="31" t="s">
-        <v>715</v>
-      </c>
-      <c r="I142" s="31" t="s">
-        <v>716</v>
+      <c r="G142" s="32" t="s">
+        <v>718</v>
+      </c>
+      <c r="H142" s="32" t="s">
+        <v>719</v>
+      </c>
+      <c r="I142" s="32" t="s">
+        <v>720</v>
       </c>
       <c r="J142" s="33" t="s">
         <v>87</v>
@@ -12480,17 +12495,17 @@
       <c r="E143" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="F143" s="31" t="s">
+      <c r="F143" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G143" s="31" t="s">
-        <v>717</v>
-      </c>
-      <c r="H143" s="31" t="s">
+      <c r="G143" s="32" t="s">
         <v>718</v>
       </c>
-      <c r="I143" s="31" t="s">
-        <v>719</v>
+      <c r="H143" s="32" t="s">
+        <v>721</v>
+      </c>
+      <c r="I143" s="32" t="s">
+        <v>722</v>
       </c>
       <c r="J143" s="33" t="s">
         <v>87</v>
@@ -12539,17 +12554,17 @@
       <c r="E144" s="31" t="s">
         <v>389</v>
       </c>
-      <c r="F144" s="31" t="s">
+      <c r="F144" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G144" s="31" t="s">
-        <v>720</v>
-      </c>
-      <c r="H144" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I144" s="31" t="s">
-        <v>722</v>
+      <c r="G144" s="32" t="s">
+        <v>723</v>
+      </c>
+      <c r="H144" s="32" t="s">
+        <v>724</v>
+      </c>
+      <c r="I144" s="32" t="s">
+        <v>725</v>
       </c>
       <c r="J144" s="33" t="s">
         <v>87</v>
@@ -12598,17 +12613,17 @@
       <c r="E145" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="F145" s="31" t="s">
+      <c r="F145" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G145" s="31" t="s">
-        <v>723</v>
-      </c>
-      <c r="H145" s="31" t="s">
-        <v>724</v>
-      </c>
-      <c r="I145" s="31" t="s">
-        <v>725</v>
+      <c r="G145" s="32" t="s">
+        <v>726</v>
+      </c>
+      <c r="H145" s="32" t="s">
+        <v>727</v>
+      </c>
+      <c r="I145" s="32" t="s">
+        <v>728</v>
       </c>
       <c r="J145" s="33" t="s">
         <v>87</v>
@@ -12657,17 +12672,17 @@
       <c r="E146" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="F146" s="31" t="s">
+      <c r="F146" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G146" s="31" t="s">
-        <v>723</v>
-      </c>
-      <c r="H146" s="31" t="s">
+      <c r="G146" s="32" t="s">
         <v>726</v>
       </c>
-      <c r="I146" s="31" t="s">
-        <v>727</v>
+      <c r="H146" s="32" t="s">
+        <v>729</v>
+      </c>
+      <c r="I146" s="32" t="s">
+        <v>730</v>
       </c>
       <c r="J146" s="33" t="s">
         <v>87</v>
@@ -12716,17 +12731,17 @@
       <c r="E147" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="F147" s="31" t="s">
+      <c r="F147" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G147" s="31" t="s">
-        <v>728</v>
-      </c>
-      <c r="H147" s="31" t="s">
-        <v>729</v>
-      </c>
-      <c r="I147" s="31" t="s">
-        <v>730</v>
+      <c r="G147" s="32" t="s">
+        <v>731</v>
+      </c>
+      <c r="H147" s="32" t="s">
+        <v>732</v>
+      </c>
+      <c r="I147" s="32" t="s">
+        <v>733</v>
       </c>
       <c r="J147" s="33" t="s">
         <v>87</v>
@@ -12775,17 +12790,17 @@
       <c r="E148" s="31" t="s">
         <v>466</v>
       </c>
-      <c r="F148" s="31" t="s">
+      <c r="F148" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G148" s="31" t="s">
-        <v>731</v>
-      </c>
-      <c r="H148" s="31" t="s">
-        <v>732</v>
-      </c>
-      <c r="I148" s="31" t="s">
-        <v>733</v>
+      <c r="G148" s="32" t="s">
+        <v>734</v>
+      </c>
+      <c r="H148" s="32" t="s">
+        <v>735</v>
+      </c>
+      <c r="I148" s="32" t="s">
+        <v>736</v>
       </c>
       <c r="J148" s="33" t="s">
         <v>87</v>
@@ -12834,17 +12849,17 @@
       <c r="E149" s="31" t="s">
         <v>467</v>
       </c>
-      <c r="F149" s="31" t="s">
+      <c r="F149" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G149" s="31" t="s">
-        <v>731</v>
-      </c>
-      <c r="H149" s="31" t="s">
+      <c r="G149" s="32" t="s">
         <v>734</v>
       </c>
-      <c r="I149" s="31" t="s">
-        <v>735</v>
+      <c r="H149" s="32" t="s">
+        <v>737</v>
+      </c>
+      <c r="I149" s="32" t="s">
+        <v>738</v>
       </c>
       <c r="J149" s="33" t="s">
         <v>87</v>
@@ -12893,17 +12908,17 @@
       <c r="E150" s="31" t="s">
         <v>468</v>
       </c>
-      <c r="F150" s="31" t="s">
+      <c r="F150" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G150" s="31" t="s">
-        <v>736</v>
-      </c>
-      <c r="H150" s="31" t="s">
-        <v>737</v>
-      </c>
-      <c r="I150" s="31" t="s">
-        <v>738</v>
+      <c r="G150" s="32" t="s">
+        <v>739</v>
+      </c>
+      <c r="H150" s="32" t="s">
+        <v>740</v>
+      </c>
+      <c r="I150" s="32" t="s">
+        <v>741</v>
       </c>
       <c r="J150" s="33" t="s">
         <v>87</v>
@@ -12940,17 +12955,17 @@
       <c r="E151" s="31" t="s">
         <v>469</v>
       </c>
-      <c r="F151" s="31" t="s">
+      <c r="F151" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G151" s="31" t="s">
-        <v>736</v>
-      </c>
-      <c r="H151" s="31" t="s">
-        <v>739</v>
-      </c>
-      <c r="I151" s="31" t="s">
-        <v>740</v>
+      <c r="G151" s="32" t="s">
+        <v>742</v>
+      </c>
+      <c r="H151" s="32" t="s">
+        <v>743</v>
+      </c>
+      <c r="I151" s="32" t="s">
+        <v>744</v>
       </c>
       <c r="J151" s="33" t="s">
         <v>87</v>
@@ -12987,17 +13002,17 @@
       <c r="E152" s="31" t="s">
         <v>470</v>
       </c>
-      <c r="F152" s="31" t="s">
+      <c r="F152" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G152" s="31" t="s">
-        <v>741</v>
-      </c>
-      <c r="H152" s="31" t="s">
+      <c r="G152" s="32" t="s">
         <v>742</v>
       </c>
-      <c r="I152" s="31" t="s">
-        <v>743</v>
+      <c r="H152" s="32" t="s">
+        <v>745</v>
+      </c>
+      <c r="I152" s="32" t="s">
+        <v>746</v>
       </c>
       <c r="J152" s="33" t="s">
         <v>87</v>
@@ -13034,17 +13049,17 @@
       <c r="E153" s="31" t="s">
         <v>471</v>
       </c>
-      <c r="F153" s="31" t="s">
+      <c r="F153" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G153" s="31" t="s">
-        <v>741</v>
-      </c>
-      <c r="H153" s="31" t="s">
-        <v>744</v>
-      </c>
-      <c r="I153" s="31" t="s">
-        <v>745</v>
+      <c r="G153" s="32" t="s">
+        <v>747</v>
+      </c>
+      <c r="H153" s="32" t="s">
+        <v>748</v>
+      </c>
+      <c r="I153" s="32" t="s">
+        <v>749</v>
       </c>
       <c r="J153" s="33" t="s">
         <v>87</v>
@@ -13081,17 +13096,17 @@
       <c r="E154" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="F154" s="31" t="s">
+      <c r="F154" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G154" s="31" t="s">
-        <v>746</v>
-      </c>
-      <c r="H154" s="31" t="s">
-        <v>747</v>
-      </c>
-      <c r="I154" s="31" t="s">
-        <v>748</v>
+      <c r="G154" s="32" t="s">
+        <v>750</v>
+      </c>
+      <c r="H154" s="32" t="s">
+        <v>751</v>
+      </c>
+      <c r="I154" s="32" t="s">
+        <v>752</v>
       </c>
       <c r="J154" s="33" t="s">
         <v>87</v>
@@ -13140,17 +13155,17 @@
       <c r="E155" s="31" t="s">
         <v>472</v>
       </c>
-      <c r="F155" s="31" t="s">
+      <c r="F155" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G155" s="31" t="s">
-        <v>746</v>
-      </c>
-      <c r="H155" s="31" t="s">
-        <v>749</v>
-      </c>
-      <c r="I155" s="31" t="s">
+      <c r="G155" s="32" t="s">
         <v>750</v>
+      </c>
+      <c r="H155" s="32" t="s">
+        <v>753</v>
+      </c>
+      <c r="I155" s="32" t="s">
+        <v>754</v>
       </c>
       <c r="J155" s="33" t="s">
         <v>87</v>
@@ -13199,17 +13214,17 @@
       <c r="E156" s="31" t="s">
         <v>473</v>
       </c>
-      <c r="F156" s="31" t="s">
+      <c r="F156" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G156" s="31" t="s">
-        <v>751</v>
-      </c>
-      <c r="H156" s="31" t="s">
-        <v>752</v>
-      </c>
-      <c r="I156" s="31" t="s">
-        <v>753</v>
+      <c r="G156" s="32" t="s">
+        <v>755</v>
+      </c>
+      <c r="H156" s="32" t="s">
+        <v>756</v>
+      </c>
+      <c r="I156" s="32" t="s">
+        <v>757</v>
       </c>
       <c r="J156" s="33" t="s">
         <v>87</v>
@@ -13258,17 +13273,17 @@
       <c r="E157" s="31" t="s">
         <v>474</v>
       </c>
-      <c r="F157" s="31" t="s">
+      <c r="F157" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G157" s="31" t="s">
-        <v>751</v>
-      </c>
-      <c r="H157" s="31" t="s">
-        <v>754</v>
-      </c>
-      <c r="I157" s="31" t="s">
+      <c r="G157" s="32" t="s">
         <v>755</v>
+      </c>
+      <c r="H157" s="32" t="s">
+        <v>758</v>
+      </c>
+      <c r="I157" s="32" t="s">
+        <v>759</v>
       </c>
       <c r="J157" s="33" t="s">
         <v>87</v>
@@ -13317,17 +13332,17 @@
       <c r="E158" s="31" t="s">
         <v>475</v>
       </c>
-      <c r="F158" s="31" t="s">
+      <c r="F158" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G158" s="31" t="s">
-        <v>756</v>
-      </c>
-      <c r="H158" s="31" t="s">
-        <v>757</v>
-      </c>
-      <c r="I158" s="31" t="s">
-        <v>758</v>
+      <c r="G158" s="32" t="s">
+        <v>760</v>
+      </c>
+      <c r="H158" s="32" t="s">
+        <v>761</v>
+      </c>
+      <c r="I158" s="32" t="s">
+        <v>762</v>
       </c>
       <c r="J158" s="33" t="s">
         <v>87</v>
@@ -13376,17 +13391,17 @@
       <c r="E159" s="31" t="s">
         <v>476</v>
       </c>
-      <c r="F159" s="31" t="s">
+      <c r="F159" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G159" s="31" t="s">
-        <v>759</v>
-      </c>
-      <c r="H159" s="31" t="s">
-        <v>760</v>
-      </c>
-      <c r="I159" s="31" t="s">
-        <v>761</v>
+      <c r="G159" s="32" t="s">
+        <v>763</v>
+      </c>
+      <c r="H159" s="32" t="s">
+        <v>764</v>
+      </c>
+      <c r="I159" s="32" t="s">
+        <v>765</v>
       </c>
       <c r="J159" s="33" t="s">
         <v>87</v>
@@ -13435,17 +13450,17 @@
       <c r="E160" s="31" t="s">
         <v>477</v>
       </c>
-      <c r="F160" s="31" t="s">
+      <c r="F160" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G160" s="31" t="s">
-        <v>759</v>
-      </c>
-      <c r="H160" s="31" t="s">
-        <v>762</v>
-      </c>
-      <c r="I160" s="31" t="s">
+      <c r="G160" s="32" t="s">
         <v>763</v>
+      </c>
+      <c r="H160" s="32" t="s">
+        <v>766</v>
+      </c>
+      <c r="I160" s="32" t="s">
+        <v>767</v>
       </c>
       <c r="J160" s="33" t="s">
         <v>87</v>
@@ -13494,17 +13509,17 @@
       <c r="E161" s="31" t="s">
         <v>478</v>
       </c>
-      <c r="F161" s="31" t="s">
+      <c r="F161" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G161" s="31" t="s">
-        <v>764</v>
-      </c>
-      <c r="H161" s="31" t="s">
-        <v>765</v>
-      </c>
-      <c r="I161" s="31" t="s">
-        <v>766</v>
+      <c r="G161" s="32" t="s">
+        <v>768</v>
+      </c>
+      <c r="H161" s="32" t="s">
+        <v>769</v>
+      </c>
+      <c r="I161" s="32" t="s">
+        <v>770</v>
       </c>
       <c r="J161" s="33" t="s">
         <v>87</v>
@@ -13553,17 +13568,17 @@
       <c r="E162" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="F162" s="31" t="s">
+      <c r="F162" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G162" s="31" t="s">
-        <v>764</v>
-      </c>
-      <c r="H162" s="31" t="s">
-        <v>767</v>
-      </c>
-      <c r="I162" s="31" t="s">
-        <v>768</v>
+      <c r="G162" s="32" t="s">
+        <v>771</v>
+      </c>
+      <c r="H162" s="32" t="s">
+        <v>772</v>
+      </c>
+      <c r="I162" s="32" t="s">
+        <v>773</v>
       </c>
       <c r="J162" s="33" t="s">
         <v>87</v>
@@ -13612,17 +13627,17 @@
       <c r="E163" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="F163" s="31" t="s">
+      <c r="F163" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G163" s="31" t="s">
-        <v>769</v>
-      </c>
-      <c r="H163" s="31" t="s">
-        <v>770</v>
-      </c>
-      <c r="I163" s="31" t="s">
+      <c r="G163" s="32" t="s">
         <v>771</v>
+      </c>
+      <c r="H163" s="32" t="s">
+        <v>774</v>
+      </c>
+      <c r="I163" s="32" t="s">
+        <v>775</v>
       </c>
       <c r="J163" s="33" t="s">
         <v>87</v>
@@ -13671,17 +13686,17 @@
       <c r="E164" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="F164" s="31" t="s">
+      <c r="F164" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G164" s="31" t="s">
-        <v>769</v>
-      </c>
-      <c r="H164" s="31" t="s">
-        <v>772</v>
-      </c>
-      <c r="I164" s="31" t="s">
-        <v>773</v>
+      <c r="G164" s="32" t="s">
+        <v>776</v>
+      </c>
+      <c r="H164" s="32" t="s">
+        <v>777</v>
+      </c>
+      <c r="I164" s="32" t="s">
+        <v>778</v>
       </c>
       <c r="J164" s="33" t="s">
         <v>87</v>
@@ -13730,17 +13745,17 @@
       <c r="E165" s="31" t="s">
         <v>382</v>
       </c>
-      <c r="F165" s="31" t="s">
+      <c r="F165" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G165" s="31" t="s">
-        <v>774</v>
-      </c>
-      <c r="H165" s="31" t="s">
-        <v>775</v>
-      </c>
-      <c r="I165" s="31" t="s">
-        <v>776</v>
+      <c r="G165" s="32" t="s">
+        <v>779</v>
+      </c>
+      <c r="H165" s="32" t="s">
+        <v>780</v>
+      </c>
+      <c r="I165" s="32" t="s">
+        <v>781</v>
       </c>
       <c r="J165" s="33" t="s">
         <v>87</v>
@@ -13789,17 +13804,17 @@
       <c r="E166" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="F166" s="31" t="s">
+      <c r="F166" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G166" s="31" t="s">
-        <v>777</v>
-      </c>
-      <c r="H166" s="31" t="s">
-        <v>778</v>
-      </c>
-      <c r="I166" s="31" t="s">
+      <c r="G166" s="32" t="s">
         <v>779</v>
+      </c>
+      <c r="H166" s="32" t="s">
+        <v>782</v>
+      </c>
+      <c r="I166" s="32" t="s">
+        <v>783</v>
       </c>
       <c r="J166" s="33" t="s">
         <v>87</v>
@@ -13848,17 +13863,17 @@
       <c r="E167" s="31" t="s">
         <v>384</v>
       </c>
-      <c r="F167" s="31" t="s">
+      <c r="F167" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G167" s="31" t="s">
-        <v>777</v>
-      </c>
-      <c r="H167" s="31" t="s">
-        <v>780</v>
-      </c>
-      <c r="I167" s="31" t="s">
-        <v>781</v>
+      <c r="G167" s="32" t="s">
+        <v>784</v>
+      </c>
+      <c r="H167" s="32" t="s">
+        <v>785</v>
+      </c>
+      <c r="I167" s="32" t="s">
+        <v>786</v>
       </c>
       <c r="J167" s="33" t="s">
         <v>87</v>
@@ -13907,17 +13922,17 @@
       <c r="E168" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="F168" s="31" t="s">
+      <c r="F168" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G168" s="31" t="s">
-        <v>782</v>
-      </c>
-      <c r="H168" s="31" t="s">
-        <v>783</v>
-      </c>
-      <c r="I168" s="31" t="s">
+      <c r="G168" s="32" t="s">
         <v>784</v>
+      </c>
+      <c r="H168" s="32" t="s">
+        <v>787</v>
+      </c>
+      <c r="I168" s="32" t="s">
+        <v>788</v>
       </c>
       <c r="J168" s="33" t="s">
         <v>87</v>
@@ -13966,17 +13981,17 @@
       <c r="E169" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="F169" s="31" t="s">
+      <c r="F169" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G169" s="31" t="s">
-        <v>782</v>
-      </c>
-      <c r="H169" s="31" t="s">
-        <v>785</v>
-      </c>
-      <c r="I169" s="31" t="s">
-        <v>786</v>
+      <c r="G169" s="32" t="s">
+        <v>789</v>
+      </c>
+      <c r="H169" s="32" t="s">
+        <v>790</v>
+      </c>
+      <c r="I169" s="32" t="s">
+        <v>791</v>
       </c>
       <c r="J169" s="33" t="s">
         <v>87</v>
@@ -14025,17 +14040,17 @@
       <c r="E170" s="31" t="s">
         <v>387</v>
       </c>
-      <c r="F170" s="31" t="s">
+      <c r="F170" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G170" s="31" t="s">
-        <v>787</v>
-      </c>
-      <c r="H170" s="31" t="s">
-        <v>788</v>
-      </c>
-      <c r="I170" s="31" t="s">
+      <c r="G170" s="32" t="s">
         <v>789</v>
+      </c>
+      <c r="H170" s="32" t="s">
+        <v>792</v>
+      </c>
+      <c r="I170" s="32" t="s">
+        <v>793</v>
       </c>
       <c r="J170" s="33" t="s">
         <v>87</v>
@@ -14084,17 +14099,17 @@
       <c r="E171" s="31" t="s">
         <v>388</v>
       </c>
-      <c r="F171" s="31" t="s">
+      <c r="F171" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G171" s="31" t="s">
-        <v>787</v>
-      </c>
-      <c r="H171" s="31" t="s">
-        <v>790</v>
-      </c>
-      <c r="I171" s="31" t="s">
-        <v>791</v>
+      <c r="G171" s="32" t="s">
+        <v>794</v>
+      </c>
+      <c r="H171" s="32" t="s">
+        <v>795</v>
+      </c>
+      <c r="I171" s="32" t="s">
+        <v>796</v>
       </c>
       <c r="J171" s="33" t="s">
         <v>87</v>
@@ -14143,17 +14158,17 @@
       <c r="E172" s="31" t="s">
         <v>390</v>
       </c>
-      <c r="F172" s="31" t="s">
+      <c r="F172" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G172" s="31" t="s">
-        <v>792</v>
-      </c>
-      <c r="H172" s="31" t="s">
-        <v>793</v>
-      </c>
-      <c r="I172" s="31" t="s">
-        <v>794</v>
+      <c r="G172" s="32" t="s">
+        <v>797</v>
+      </c>
+      <c r="H172" s="32" t="s">
+        <v>798</v>
+      </c>
+      <c r="I172" s="32" t="s">
+        <v>799</v>
       </c>
       <c r="J172" s="33" t="s">
         <v>87</v>
@@ -14933,17 +14948,17 @@
       <c r="E190" s="31" t="s">
         <v>494</v>
       </c>
-      <c r="F190" s="31" t="s">
+      <c r="F190" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G190" s="31" t="s">
-        <v>792</v>
-      </c>
-      <c r="H190" s="31" t="s">
-        <v>795</v>
-      </c>
-      <c r="I190" s="31" t="s">
-        <v>796</v>
+      <c r="G190" s="32" t="s">
+        <v>797</v>
+      </c>
+      <c r="H190" s="32" t="s">
+        <v>800</v>
+      </c>
+      <c r="I190" s="32" t="s">
+        <v>801</v>
       </c>
       <c r="J190" s="33" t="s">
         <v>87</v>
@@ -14980,17 +14995,17 @@
       <c r="E191" s="31" t="s">
         <v>495</v>
       </c>
-      <c r="F191" s="31" t="s">
+      <c r="F191" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G191" s="31" t="s">
-        <v>797</v>
-      </c>
-      <c r="H191" s="31" t="s">
-        <v>798</v>
-      </c>
-      <c r="I191" s="31" t="s">
-        <v>799</v>
+      <c r="G191" s="32" t="s">
+        <v>802</v>
+      </c>
+      <c r="H191" s="32" t="s">
+        <v>803</v>
+      </c>
+      <c r="I191" s="32" t="s">
+        <v>804</v>
       </c>
       <c r="J191" s="33" t="s">
         <v>87</v>
@@ -15027,17 +15042,17 @@
       <c r="E192" s="31" t="s">
         <v>496</v>
       </c>
-      <c r="F192" s="31" t="s">
+      <c r="F192" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G192" s="31" t="s">
-        <v>800</v>
-      </c>
-      <c r="H192" s="31" t="s">
-        <v>801</v>
-      </c>
-      <c r="I192" s="31" t="s">
-        <v>802</v>
+      <c r="G192" s="32" t="s">
+        <v>805</v>
+      </c>
+      <c r="H192" s="32" t="s">
+        <v>806</v>
+      </c>
+      <c r="I192" s="32" t="s">
+        <v>807</v>
       </c>
       <c r="J192" s="33" t="s">
         <v>87</v>
@@ -15074,10 +15089,10 @@
       <c r="E193" s="31" t="s">
         <v>497</v>
       </c>
-      <c r="F193" s="62"/>
-      <c r="G193" s="63"/>
-      <c r="H193" s="31"/>
-      <c r="I193" s="31"/>
+      <c r="F193" s="32"/>
+      <c r="G193" s="32"/>
+      <c r="H193" s="32"/>
+      <c r="I193" s="32"/>
       <c r="J193" s="33"/>
       <c r="K193" s="33"/>
       <c r="L193" s="33"/>
@@ -15111,10 +15126,10 @@
       <c r="E194" s="31" t="s">
         <v>498</v>
       </c>
-      <c r="F194" s="62"/>
-      <c r="G194" s="63"/>
-      <c r="H194" s="31"/>
-      <c r="I194" s="31"/>
+      <c r="F194" s="32"/>
+      <c r="G194" s="32"/>
+      <c r="H194" s="32"/>
+      <c r="I194" s="32"/>
       <c r="J194" s="33"/>
       <c r="K194" s="33"/>
       <c r="L194" s="33"/>
@@ -15148,17 +15163,17 @@
       <c r="E195" s="31" t="s">
         <v>499</v>
       </c>
-      <c r="F195" s="31" t="s">
+      <c r="F195" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G195" s="31" t="s">
-        <v>800</v>
-      </c>
-      <c r="H195" s="31" t="s">
-        <v>803</v>
-      </c>
-      <c r="I195" s="31" t="s">
-        <v>804</v>
+      <c r="G195" s="32" t="s">
+        <v>805</v>
+      </c>
+      <c r="H195" s="32" t="s">
+        <v>808</v>
+      </c>
+      <c r="I195" s="32" t="s">
+        <v>809</v>
       </c>
       <c r="J195" s="33" t="s">
         <v>87</v>
@@ -15195,17 +15210,17 @@
       <c r="E196" s="31" t="s">
         <v>500</v>
       </c>
-      <c r="F196" s="31" t="s">
+      <c r="F196" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G196" s="31" t="s">
-        <v>805</v>
-      </c>
-      <c r="H196" s="31" t="s">
-        <v>806</v>
-      </c>
-      <c r="I196" s="31" t="s">
-        <v>807</v>
+      <c r="G196" s="32" t="s">
+        <v>810</v>
+      </c>
+      <c r="H196" s="32" t="s">
+        <v>811</v>
+      </c>
+      <c r="I196" s="32" t="s">
+        <v>812</v>
       </c>
       <c r="J196" s="33" t="s">
         <v>87</v>
@@ -15242,17 +15257,17 @@
       <c r="E197" s="41" t="s">
         <v>501</v>
       </c>
-      <c r="F197" s="31" t="s">
+      <c r="F197" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G197" s="31" t="s">
-        <v>805</v>
-      </c>
-      <c r="H197" s="31" t="s">
-        <v>808</v>
-      </c>
-      <c r="I197" s="31" t="s">
-        <v>809</v>
+      <c r="G197" s="32" t="s">
+        <v>810</v>
+      </c>
+      <c r="H197" s="32" t="s">
+        <v>813</v>
+      </c>
+      <c r="I197" s="32" t="s">
+        <v>814</v>
       </c>
       <c r="J197" s="33" t="s">
         <v>87</v>
@@ -15289,10 +15304,10 @@
       <c r="E198" s="48" t="s">
         <v>394</v>
       </c>
-      <c r="F198" s="62"/>
-      <c r="G198" s="63"/>
-      <c r="H198" s="31"/>
-      <c r="I198" s="31"/>
+      <c r="F198" s="32"/>
+      <c r="G198" s="32"/>
+      <c r="H198" s="32"/>
+      <c r="I198" s="32"/>
       <c r="J198" s="49"/>
       <c r="K198" s="49"/>
       <c r="L198" s="49"/>
@@ -15326,10 +15341,10 @@
       <c r="E199" s="31" t="s">
         <v>393</v>
       </c>
-      <c r="F199" s="62"/>
-      <c r="G199" s="63"/>
-      <c r="H199" s="31"/>
-      <c r="I199" s="31"/>
+      <c r="F199" s="32"/>
+      <c r="G199" s="32"/>
+      <c r="H199" s="32"/>
+      <c r="I199" s="32"/>
       <c r="J199" s="49"/>
       <c r="K199" s="49"/>
       <c r="L199" s="49"/>
@@ -15363,10 +15378,10 @@
       <c r="E200" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="F200" s="62"/>
-      <c r="G200" s="63"/>
-      <c r="H200" s="31"/>
-      <c r="I200" s="31"/>
+      <c r="F200" s="32"/>
+      <c r="G200" s="32"/>
+      <c r="H200" s="32"/>
+      <c r="I200" s="32"/>
       <c r="J200" s="49"/>
       <c r="K200" s="49"/>
       <c r="L200" s="49"/>
@@ -15400,10 +15415,10 @@
       <c r="E201" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="F201" s="62"/>
-      <c r="G201" s="63"/>
-      <c r="H201" s="31"/>
-      <c r="I201" s="31"/>
+      <c r="F201" s="32"/>
+      <c r="G201" s="32"/>
+      <c r="H201" s="32"/>
+      <c r="I201" s="32"/>
       <c r="J201" s="33" t="s">
         <v>307</v>
       </c>
@@ -15443,10 +15458,10 @@
       <c r="E202" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="F202" s="62"/>
-      <c r="G202" s="63"/>
-      <c r="H202" s="31"/>
-      <c r="I202" s="31"/>
+      <c r="F202" s="32"/>
+      <c r="G202" s="32"/>
+      <c r="H202" s="32"/>
+      <c r="I202" s="32"/>
       <c r="J202" s="33" t="s">
         <v>307</v>
       </c>
@@ -15486,10 +15501,10 @@
       <c r="E203" s="31" t="s">
         <v>352</v>
       </c>
-      <c r="F203" s="62"/>
-      <c r="G203" s="63"/>
-      <c r="H203" s="31"/>
-      <c r="I203" s="31"/>
+      <c r="F203" s="32"/>
+      <c r="G203" s="32"/>
+      <c r="H203" s="32"/>
+      <c r="I203" s="32"/>
       <c r="J203" s="33" t="s">
         <v>307</v>
       </c>
@@ -15529,10 +15544,10 @@
       <c r="E204" s="31" t="s">
         <v>368</v>
       </c>
-      <c r="F204" s="62"/>
-      <c r="G204" s="63"/>
-      <c r="H204" s="31"/>
-      <c r="I204" s="31"/>
+      <c r="F204" s="32"/>
+      <c r="G204" s="32"/>
+      <c r="H204" s="32"/>
+      <c r="I204" s="32"/>
       <c r="J204" s="33" t="s">
         <v>307</v>
       </c>
@@ -15572,10 +15587,10 @@
       <c r="E205" s="31" t="s">
         <v>354</v>
       </c>
-      <c r="F205" s="62"/>
-      <c r="G205" s="63"/>
-      <c r="H205" s="31"/>
-      <c r="I205" s="31"/>
+      <c r="F205" s="32"/>
+      <c r="G205" s="32"/>
+      <c r="H205" s="32"/>
+      <c r="I205" s="32"/>
       <c r="J205" s="33" t="s">
         <v>307</v>
       </c>
@@ -15615,10 +15630,10 @@
       <c r="E206" s="31" t="s">
         <v>355</v>
       </c>
-      <c r="F206" s="62"/>
-      <c r="G206" s="63"/>
-      <c r="H206" s="31"/>
-      <c r="I206" s="31"/>
+      <c r="F206" s="32"/>
+      <c r="G206" s="32"/>
+      <c r="H206" s="32"/>
+      <c r="I206" s="32"/>
       <c r="J206" s="33" t="s">
         <v>307</v>
       </c>
@@ -15658,10 +15673,10 @@
       <c r="E207" s="31" t="s">
         <v>369</v>
       </c>
-      <c r="F207" s="62"/>
-      <c r="G207" s="63"/>
-      <c r="H207" s="31"/>
-      <c r="I207" s="31"/>
+      <c r="F207" s="32"/>
+      <c r="G207" s="32"/>
+      <c r="H207" s="32"/>
+      <c r="I207" s="32"/>
       <c r="J207" s="33" t="s">
         <v>307</v>
       </c>
@@ -15701,10 +15716,10 @@
       <c r="E208" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="F208" s="62"/>
-      <c r="G208" s="63"/>
-      <c r="H208" s="31"/>
-      <c r="I208" s="31"/>
+      <c r="F208" s="32"/>
+      <c r="G208" s="32"/>
+      <c r="H208" s="32"/>
+      <c r="I208" s="32"/>
       <c r="J208" s="33" t="s">
         <v>307</v>
       </c>
@@ -15744,10 +15759,10 @@
       <c r="E209" s="31" t="s">
         <v>356</v>
       </c>
-      <c r="F209" s="62"/>
-      <c r="G209" s="63"/>
-      <c r="H209" s="31"/>
-      <c r="I209" s="31"/>
+      <c r="F209" s="32"/>
+      <c r="G209" s="32"/>
+      <c r="H209" s="32"/>
+      <c r="I209" s="32"/>
       <c r="J209" s="33" t="s">
         <v>307</v>
       </c>
@@ -15787,10 +15802,10 @@
       <c r="E210" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="F210" s="62"/>
-      <c r="G210" s="63"/>
-      <c r="H210" s="31"/>
-      <c r="I210" s="31"/>
+      <c r="F210" s="32"/>
+      <c r="G210" s="32"/>
+      <c r="H210" s="32"/>
+      <c r="I210" s="32"/>
       <c r="J210" s="33" t="s">
         <v>307</v>
       </c>
@@ -15830,10 +15845,10 @@
       <c r="E211" s="31" t="s">
         <v>372</v>
       </c>
-      <c r="F211" s="62"/>
-      <c r="G211" s="63"/>
-      <c r="H211" s="31"/>
-      <c r="I211" s="31"/>
+      <c r="F211" s="32"/>
+      <c r="G211" s="32"/>
+      <c r="H211" s="32"/>
+      <c r="I211" s="32"/>
       <c r="J211" s="33" t="s">
         <v>307</v>
       </c>
@@ -15873,10 +15888,10 @@
       <c r="E212" s="31" t="s">
         <v>373</v>
       </c>
-      <c r="F212" s="62"/>
-      <c r="G212" s="63"/>
-      <c r="H212" s="31"/>
-      <c r="I212" s="31"/>
+      <c r="F212" s="32"/>
+      <c r="G212" s="32"/>
+      <c r="H212" s="32"/>
+      <c r="I212" s="32"/>
       <c r="J212" s="33" t="s">
         <v>307</v>
       </c>
@@ -15916,10 +15931,10 @@
       <c r="E213" s="31" t="s">
         <v>374</v>
       </c>
-      <c r="F213" s="62"/>
-      <c r="G213" s="63"/>
-      <c r="H213" s="31"/>
-      <c r="I213" s="31"/>
+      <c r="F213" s="32"/>
+      <c r="G213" s="32"/>
+      <c r="H213" s="32"/>
+      <c r="I213" s="32"/>
       <c r="J213" s="33" t="s">
         <v>307</v>
       </c>
@@ -15959,10 +15974,10 @@
       <c r="E214" s="31" t="s">
         <v>375</v>
       </c>
-      <c r="F214" s="62"/>
-      <c r="G214" s="63"/>
-      <c r="H214" s="31"/>
-      <c r="I214" s="31"/>
+      <c r="F214" s="32"/>
+      <c r="G214" s="32"/>
+      <c r="H214" s="32"/>
+      <c r="I214" s="32"/>
       <c r="J214" s="33" t="s">
         <v>307</v>
       </c>
@@ -16002,10 +16017,10 @@
       <c r="E215" s="31" t="s">
         <v>357</v>
       </c>
-      <c r="F215" s="62"/>
-      <c r="G215" s="63"/>
-      <c r="H215" s="31"/>
-      <c r="I215" s="31"/>
+      <c r="F215" s="32"/>
+      <c r="G215" s="32"/>
+      <c r="H215" s="32"/>
+      <c r="I215" s="32"/>
       <c r="J215" s="33" t="s">
         <v>307</v>
       </c>
@@ -16045,10 +16060,10 @@
       <c r="E216" s="31" t="s">
         <v>358</v>
       </c>
-      <c r="F216" s="62"/>
-      <c r="G216" s="63"/>
-      <c r="H216" s="31"/>
-      <c r="I216" s="31"/>
+      <c r="F216" s="32"/>
+      <c r="G216" s="32"/>
+      <c r="H216" s="32"/>
+      <c r="I216" s="32"/>
       <c r="J216" s="33" t="s">
         <v>307</v>
       </c>
@@ -16088,10 +16103,10 @@
       <c r="E217" s="31" t="s">
         <v>359</v>
       </c>
-      <c r="F217" s="62"/>
-      <c r="G217" s="63"/>
-      <c r="H217" s="31"/>
-      <c r="I217" s="31"/>
+      <c r="F217" s="32"/>
+      <c r="G217" s="32"/>
+      <c r="H217" s="32"/>
+      <c r="I217" s="32"/>
       <c r="J217" s="33" t="s">
         <v>307</v>
       </c>
@@ -16131,10 +16146,10 @@
       <c r="E218" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="F218" s="62"/>
-      <c r="G218" s="63"/>
-      <c r="H218" s="31"/>
-      <c r="I218" s="31"/>
+      <c r="F218" s="32"/>
+      <c r="G218" s="32"/>
+      <c r="H218" s="32"/>
+      <c r="I218" s="32"/>
       <c r="J218" s="33" t="s">
         <v>307</v>
       </c>
@@ -16174,10 +16189,10 @@
       <c r="E219" s="31" t="s">
         <v>377</v>
       </c>
-      <c r="F219" s="62"/>
-      <c r="G219" s="63"/>
-      <c r="H219" s="31"/>
-      <c r="I219" s="31"/>
+      <c r="F219" s="32"/>
+      <c r="G219" s="32"/>
+      <c r="H219" s="32"/>
+      <c r="I219" s="32"/>
       <c r="J219" s="33" t="s">
         <v>307</v>
       </c>
@@ -16217,10 +16232,10 @@
       <c r="E220" s="41" t="s">
         <v>364</v>
       </c>
-      <c r="F220" s="62"/>
-      <c r="G220" s="63"/>
-      <c r="H220" s="31"/>
-      <c r="I220" s="31"/>
+      <c r="F220" s="32"/>
+      <c r="G220" s="32"/>
+      <c r="H220" s="32"/>
+      <c r="I220" s="32"/>
       <c r="J220" s="33" t="s">
         <v>307</v>
       </c>
@@ -16260,10 +16275,10 @@
       <c r="E221" s="48" t="s">
         <v>365</v>
       </c>
-      <c r="F221" s="62"/>
-      <c r="G221" s="63"/>
-      <c r="H221" s="31"/>
-      <c r="I221" s="31"/>
+      <c r="F221" s="32"/>
+      <c r="G221" s="32"/>
+      <c r="H221" s="32"/>
+      <c r="I221" s="32"/>
       <c r="J221" s="33" t="s">
         <v>307</v>
       </c>
@@ -16303,10 +16318,10 @@
       <c r="E222" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="F222" s="62"/>
-      <c r="G222" s="63"/>
-      <c r="H222" s="31"/>
-      <c r="I222" s="31"/>
+      <c r="F222" s="32"/>
+      <c r="G222" s="32"/>
+      <c r="H222" s="32"/>
+      <c r="I222" s="32"/>
       <c r="J222" s="49"/>
       <c r="K222" s="49"/>
       <c r="L222" s="49"/>
@@ -16340,10 +16355,10 @@
       <c r="E223" s="48" t="s">
         <v>323</v>
       </c>
-      <c r="F223" s="62"/>
-      <c r="G223" s="63"/>
-      <c r="H223" s="31"/>
-      <c r="I223" s="31"/>
+      <c r="F223" s="32"/>
+      <c r="G223" s="32"/>
+      <c r="H223" s="32"/>
+      <c r="I223" s="32"/>
       <c r="J223" s="49"/>
       <c r="K223" s="49"/>
       <c r="L223" s="49"/>
@@ -16377,17 +16392,17 @@
       <c r="E224" s="41" t="s">
         <v>378</v>
       </c>
-      <c r="F224" s="31" t="s">
+      <c r="F224" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G224" s="31" t="s">
+      <c r="G224" s="32" t="s">
         <v>815</v>
       </c>
-      <c r="H224" s="31" t="s">
-        <v>814</v>
-      </c>
-      <c r="I224" s="31" t="s">
-        <v>813</v>
+      <c r="H224" s="32" t="s">
+        <v>816</v>
+      </c>
+      <c r="I224" s="32" t="s">
+        <v>817</v>
       </c>
       <c r="J224" s="33" t="s">
         <v>87</v>
@@ -16424,17 +16439,17 @@
       <c r="E225" s="48" t="s">
         <v>379</v>
       </c>
-      <c r="F225" s="31" t="s">
+      <c r="F225" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="G225" s="31" t="s">
-        <v>812</v>
-      </c>
-      <c r="H225" s="31" t="s">
-        <v>811</v>
-      </c>
-      <c r="I225" s="31" t="s">
-        <v>810</v>
+      <c r="G225" s="32" t="s">
+        <v>818</v>
+      </c>
+      <c r="H225" s="32" t="s">
+        <v>819</v>
+      </c>
+      <c r="I225" s="32" t="s">
+        <v>820</v>
       </c>
       <c r="J225" s="33" t="s">
         <v>87</v>
@@ -23249,6 +23264,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -23506,15 +23530,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -23528,6 +23543,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5C8A108-5C92-4947-B020-8B796E060B59}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -23542,14 +23565,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
